--- a/data/hotels_by_city/Houston/Houston_shard_199.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_199.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="581">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107991-Reviews-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Drury-Inn-Suites-Houston-WestEnergy-Corridor.h41727.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1631 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r599026094-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107991</t>
+  </si>
+  <si>
+    <t>599026094</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Amazing hotel experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was the best hotel experience I’ve had ever. This hotel includes so much free stuff that saves you so much money. I didn’t have to buy breakfast, dinner, snacks or drinks (alcohol also) with my stay. The staff was amazing and the pool and  fitness center was clean. I will be staying there every year when I come to Houston! </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r577639334-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577639334</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Lovely Staff Oddly Configured Room</t>
+  </si>
+  <si>
+    <t>The hotel was easy to find, quiet, and well lit with gated parking (though we never saw the gate actually closed).  Our room was across from the ice maker (that sounded like a vacuum cleaner running at all times) but when the door to the room shut - the noise didn't follow us.  The room was very quiet!
+The staff is very friendly, professional and most helpful to the guests.  Kevin and Kenya were at the desk when we checked in, and Annette was the woman in charge of the food at super and again the next morning.  She was always kind and very solicitous of the folks eating in the dining area.  Our room was spotless, and the bed was actually made, tucked in tight which is always wonderful and rare these days (thank you to Flora).
+The decor is a bit outdated and the same with the room decor.  We found the room configuration a bit odd but then we've only stayed in one other Drury before.  The room was small and the bathroom was up near the door, while the bedroom was far away behind the living area.  Not sure why that was done but it was a bit of a trek getting up in the middle of the night.  
+I would definitely recommend the hotel for comfort, cleanliness and fantastic staff!  I wouldn't want to stay in the small room for long, but overnight was perfect!...The hotel was easy to find, quiet, and well lit with gated parking (though we never saw the gate actually closed).  Our room was across from the ice maker (that sounded like a vacuum cleaner running at all times) but when the door to the room shut - the noise didn't follow us.  The room was very quiet!The staff is very friendly, professional and most helpful to the guests.  Kevin and Kenya were at the desk when we checked in, and Annette was the woman in charge of the food at super and again the next morning.  She was always kind and very solicitous of the folks eating in the dining area.  Our room was spotless, and the bed was actually made, tucked in tight which is always wonderful and rare these days (thank you to Flora).The decor is a bit outdated and the same with the room decor.  We found the room configuration a bit odd but then we've only stayed in one other Drury before.  The room was small and the bathroom was up near the door, while the bedroom was far away behind the living area.  Not sure why that was done but it was a bit of a trek getting up in the middle of the night.  I would definitely recommend the hotel for comfort, cleanliness and fantastic staff!  I wouldn't want to stay in the small room for long, but overnight was perfect!  The food options were wonderful and can't be beat!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The hotel was easy to find, quiet, and well lit with gated parking (though we never saw the gate actually closed).  Our room was across from the ice maker (that sounded like a vacuum cleaner running at all times) but when the door to the room shut - the noise didn't follow us.  The room was very quiet!
+The staff is very friendly, professional and most helpful to the guests.  Kevin and Kenya were at the desk when we checked in, and Annette was the woman in charge of the food at super and again the next morning.  She was always kind and very solicitous of the folks eating in the dining area.  Our room was spotless, and the bed was actually made, tucked in tight which is always wonderful and rare these days (thank you to Flora).
+The decor is a bit outdated and the same with the room decor.  We found the room configuration a bit odd but then we've only stayed in one other Drury before.  The room was small and the bathroom was up near the door, while the bedroom was far away behind the living area.  Not sure why that was done but it was a bit of a trek getting up in the middle of the night.  
+I would definitely recommend the hotel for comfort, cleanliness and fantastic staff!  I wouldn't want to stay in the small room for long, but overnight was perfect!...The hotel was easy to find, quiet, and well lit with gated parking (though we never saw the gate actually closed).  Our room was across from the ice maker (that sounded like a vacuum cleaner running at all times) but when the door to the room shut - the noise didn't follow us.  The room was very quiet!The staff is very friendly, professional and most helpful to the guests.  Kevin and Kenya were at the desk when we checked in, and Annette was the woman in charge of the food at super and again the next morning.  She was always kind and very solicitous of the folks eating in the dining area.  Our room was spotless, and the bed was actually made, tucked in tight which is always wonderful and rare these days (thank you to Flora).The decor is a bit outdated and the same with the room decor.  We found the room configuration a bit odd but then we've only stayed in one other Drury before.  The room was small and the bathroom was up near the door, while the bedroom was far away behind the living area.  Not sure why that was done but it was a bit of a trek getting up in the middle of the night.  I would definitely recommend the hotel for comfort, cleanliness and fantastic staff!  I wouldn't want to stay in the small room for long, but overnight was perfect!  The food options were wonderful and can't be beat!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r572298732-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572298732</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Super Suite for a Sweet Price!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were thrilled with our two-room suite at the Drury Inn.  It was so spacious and the whole facility is clean and nicely decorated!  My husband was watching a game in one room and I could watch a movie in the other.  The front desk people were so friendly.  The dinner, breakfast and happy hour that are included make this not only affordable but the food was better than most of a similar nature.  The courtesy shuttle to the airport was also very nice and the staff so accommodating.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r559812858-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559812858</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Pool room? Avoid odd # rooms</t>
+  </si>
+  <si>
+    <t>If it weren’t for the nice service and overall cleanliness the rating would be higher.But there is a major flaw with the design of this hotel. Some of the room’s windows overlook the indoor pool so the a/c and heat vents take their air from the enclosed space...the smell of chlorine in the hotel room is overwhelming ( we arrived late and tired so we didn’t request to be moved). Also the hot tub is on all night so the sound of the pump can be annoying. If we ever stay here again we would choose the even numbered rooms away from the pool.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r550950398-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550950398</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Do I have to get up??? 😊</t>
+  </si>
+  <si>
+    <t>Oh my goodness! The bed was so comfortable I didn’t want to get up!!  Really liked having not only a breakfast but an evening meal plus drinks included in the cost of my stay. Saved a bunch of money not having to go out to eat!  And the food was really good !!</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r537853364-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537853364</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>Met our needs</t>
+  </si>
+  <si>
+    <t>Hotel was suggested to wedding guests and it was located near to the venues for all the wedding celebrations. Nice middle range hotel. Quiet even though near busy roads. Clean and tidied up neatly each day and toiletries replenished. Rooms had nice curtains and paintings which looked nice in the pictures we took in our wedding outfits. Breakfast was quite basic and we choose not to have it on the other mornings we stayed here. Overall, very good and would visit again</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r523701513-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>523701513</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Always enjoy may stay at Drury, The 5:30 kickback with free drinks and full breakfast buffet is awesome. Facility is clean and well kept. This hotel also has a combination indoor/outdoor pool with Jacuzzi.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r518827072-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>518827072</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Always enjoy the Drury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've been to at least three Drury locations, and I have the same, great experience at each one. The staff is always nice and friendly. The kickback happy hour is always good. Every adult gets 3 free drinks and a small buffet. There's a free breakfast buffet as well. They always have free popcorn from their poocorn machine. Parking is free. There's an indoor pool. It's right off Hwy 6 and I-10. I had the suite, and it's spacious. The bedroom is separated with a door. There's a sofa bed in the living area. Will return. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r508245477-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508245477</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Nice and well worth it!</t>
+  </si>
+  <si>
+    <t>Another fine Drury hotel.  We are moving cross country with our two dogs - so finding nice hotels that can accommodate pets is hard.  This hotel is nice, with good free food, convenient location, clean room that doesn't have strange smells, clean common areas.  Great price and value!!  I would stay here again without hesitation!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r476614051-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476614051</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Easter Weekend Vacation</t>
+  </si>
+  <si>
+    <t>This was our first time staying at a Drury Inn and this will now be our go to place. Breakfast was great every morning.  The kickback was perfect. This hotel wasn't crowded at all.  We stayed on the 4th floor and didn't have any neighbors for our first 3 nights.  Our last night there we had some people move in next to us and a few issues, but we went down and Lisa did a GREAT job in taking care of it.  All of the staff here was amazing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r474617664-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474617664</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Weekend Vacation</t>
+  </si>
+  <si>
+    <t>Hotel staff was very friendly, continental breakfast was very good, rooms were clean and priced accordingly... Kid friendly, and must say, the restaurant/club next door was LIVE til the wee hours of the morning....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r471682577-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471682577</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Superbowl weekend with my wife and pooch</t>
+  </si>
+  <si>
+    <t>We went to Houston on Super Bowl  weekend - no, not for the Super Bowl but for my cousin's wedding. Prices were generally inflated but this hotel came in at a relatively okay price. The hotel was really well maintained: clean with friendly staff. Breakfast was a highlight as the food was constantly replenished. The manager even stepped in to help the staff when the breakfast crowd peaked. My pooch was welcomed by all the staff. Not much to do in the neighborhood but easy access to nearby highways. No hesitation in recommending this hotel.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r453694249-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453694249</t>
+  </si>
+  <si>
+    <t>01/20/2017</t>
+  </si>
+  <si>
+    <t>Clean, Consistent quality</t>
+  </si>
+  <si>
+    <t>Our family loves staying with Drury when we travel due to predictable consistent quality among locations. Our kids love the snacks &amp; drinks. They also commented this location's hot tub is exceptionally clean but prefer the outdoor pool option at other locations. Traffic at this location makes navigation a bit more complicated &amp; it's a bit too far out for medical visits.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r453497404-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453497404</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Excellent Staff, Comfortable Accommodations, Great Place!</t>
+  </si>
+  <si>
+    <t>I have been staying at this location for business, frequently, for about the past decade. Of all of the hotels I stay in , this is among my favorites. The accomodations are always spacious and comfortable. The hot breakfast and kickback dinner snacks are tasty and bountiful. But what really makes this place is the staff. Over the years I have seen staff come and go. But a constant fixture is Toni Walker. Toni always greets me with a smile when I check in. She is frequently circulating among the guests, many of whom she knows on a first name basis, and has a connection with. Toni has always been available to lend assistance when other services have failed. She has helped collate manuals, located lost shipments, and always been available when a special request is made. I have spent a lot of time talking with Toni, and she makes me , and all the other guests feel like family - like this Drury is home. I highly recommend staying here if you are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I have been staying at this location for business, frequently, for about the past decade. Of all of the hotels I stay in , this is among my favorites. The accomodations are always spacious and comfortable. The hot breakfast and kickback dinner snacks are tasty and bountiful. But what really makes this place is the staff. Over the years I have seen staff come and go. But a constant fixture is Toni Walker. Toni always greets me with a smile when I check in. She is frequently circulating among the guests, many of whom she knows on a first name basis, and has a connection with. Toni has always been available to lend assistance when other services have failed. She has helped collate manuals, located lost shipments, and always been available when a special request is made. I have spent a lot of time talking with Toni, and she makes me , and all the other guests feel like family - like this Drury is home. I highly recommend staying here if you are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r451989916-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451989916</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Your Front Desk Manager, Tony, is Wonder Woman!</t>
+  </si>
+  <si>
+    <t>Seriously!  Whatever Drury is paying Tony, the front desk manager, it's not enough. I stayed there, periodically, over the holidays, and no matter what time I came by the front desk with a request, a question, a need...Tony was ALWAYS THERE!!!  I'm convinced she lives in the back office!  Which has to be pretty grueling for her, but it works out great for me, because she never lets me down. It is quite something to be able to depend on someone to "get it right" every time, but this woman exceeds that on a regular basis. No matter what challenges I presented to her, she solved them quickly and perfectly. And she never stops smiling!  I don't think I've ever met a happier, sunnier person. I don't know how she does it. Knowing I can depend on her making my stay stress-free makes my job a lot easier, but knowing I can count on her to be friendly, upbeat, and positive when I drag myself back to the hotel from what is often just a train wreck of a day...well, that makes all the difference.  She's probably saved me thousands of dollars in therapy bills, I kid you not.  I'm happy with most of the Drury experience and its other employees, but I felt I needed to single Tony out for special recognition. And I know this is going to embarrass her, but I'm just going to say it. Drury...Seriously!  Whatever Drury is paying Tony, the front desk manager, it's not enough. I stayed there, periodically, over the holidays, and no matter what time I came by the front desk with a request, a question, a need...Tony was ALWAYS THERE!!!  I'm convinced she lives in the back office!  Which has to be pretty grueling for her, but it works out great for me, because she never lets me down. It is quite something to be able to depend on someone to "get it right" every time, but this woman exceeds that on a regular basis. No matter what challenges I presented to her, she solved them quickly and perfectly. And she never stops smiling!  I don't think I've ever met a happier, sunnier person. I don't know how she does it. Knowing I can depend on her making my stay stress-free makes my job a lot easier, but knowing I can count on her to be friendly, upbeat, and positive when I drag myself back to the hotel from what is often just a train wreck of a day...well, that makes all the difference.  She's probably saved me thousands of dollars in therapy bills, I kid you not.  I'm happy with most of the Drury experience and its other employees, but I felt I needed to single Tony out for special recognition. And I know this is going to embarrass her, but I'm just going to say it. Drury Corporate, I hope you're paying close attention to the job she's doing for you, and that you plan to quickly move her up the ladder, because I can assure you that I'm going to do my level best to poach her for my team if you drop the ball.  She doesn't know the first thing about the tire business, but I can teach that. What I've found, over the years, is that I absolutely cannot teach someone how to be a hard worker, how to be loyal, or how to go through life with a great attitude that translates to the job. Either you are that person, or you're not. And Tony is.  And if I get the chance, I'm going to steal her right out from under you.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Seriously!  Whatever Drury is paying Tony, the front desk manager, it's not enough. I stayed there, periodically, over the holidays, and no matter what time I came by the front desk with a request, a question, a need...Tony was ALWAYS THERE!!!  I'm convinced she lives in the back office!  Which has to be pretty grueling for her, but it works out great for me, because she never lets me down. It is quite something to be able to depend on someone to "get it right" every time, but this woman exceeds that on a regular basis. No matter what challenges I presented to her, she solved them quickly and perfectly. And she never stops smiling!  I don't think I've ever met a happier, sunnier person. I don't know how she does it. Knowing I can depend on her making my stay stress-free makes my job a lot easier, but knowing I can count on her to be friendly, upbeat, and positive when I drag myself back to the hotel from what is often just a train wreck of a day...well, that makes all the difference.  She's probably saved me thousands of dollars in therapy bills, I kid you not.  I'm happy with most of the Drury experience and its other employees, but I felt I needed to single Tony out for special recognition. And I know this is going to embarrass her, but I'm just going to say it. Drury...Seriously!  Whatever Drury is paying Tony, the front desk manager, it's not enough. I stayed there, periodically, over the holidays, and no matter what time I came by the front desk with a request, a question, a need...Tony was ALWAYS THERE!!!  I'm convinced she lives in the back office!  Which has to be pretty grueling for her, but it works out great for me, because she never lets me down. It is quite something to be able to depend on someone to "get it right" every time, but this woman exceeds that on a regular basis. No matter what challenges I presented to her, she solved them quickly and perfectly. And she never stops smiling!  I don't think I've ever met a happier, sunnier person. I don't know how she does it. Knowing I can depend on her making my stay stress-free makes my job a lot easier, but knowing I can count on her to be friendly, upbeat, and positive when I drag myself back to the hotel from what is often just a train wreck of a day...well, that makes all the difference.  She's probably saved me thousands of dollars in therapy bills, I kid you not.  I'm happy with most of the Drury experience and its other employees, but I felt I needed to single Tony out for special recognition. And I know this is going to embarrass her, but I'm just going to say it. Drury Corporate, I hope you're paying close attention to the job she's doing for you, and that you plan to quickly move her up the ladder, because I can assure you that I'm going to do my level best to poach her for my team if you drop the ball.  She doesn't know the first thing about the tire business, but I can teach that. What I've found, over the years, is that I absolutely cannot teach someone how to be a hard worker, how to be loyal, or how to go through life with a great attitude that translates to the job. Either you are that person, or you're not. And Tony is.  And if I get the chance, I'm going to steal her right out from under you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r437092464-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437092464</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>LISA SIMMONS!!!!! GREAT CUSTOMER SERVICE!!</t>
+  </si>
+  <si>
+    <t>I had previously stayed here and had not had the best experience overall but was willing to give them another shot.  After a 6 hour drive I stopped in for two nights at this Drury Inn. I explained my previous issues to the front desk rep to hopefully avoid them this go 'round and she showed so much care and concern. I had a couple hiccups even this time around with the room I was in and I was ready to leave and stay elsewhere but  she went ABOVE AND BEYOND to ensure I was comfortable and satisfied.  She even called my room the next day to make sure my stay was still going well!!!!  I rarely have an experience that makes me go out of my way to give a review or compliment but Lisa's professionalism and patience was FAR BEYOND exceptional! Thanks Lisa and thank you Drury for employing such a great person! TWO THUMBS UP AND 5 STARS FOR GREAT CUSTOMER SERVICE!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I had previously stayed here and had not had the best experience overall but was willing to give them another shot.  After a 6 hour drive I stopped in for two nights at this Drury Inn. I explained my previous issues to the front desk rep to hopefully avoid them this go 'round and she showed so much care and concern. I had a couple hiccups even this time around with the room I was in and I was ready to leave and stay elsewhere but  she went ABOVE AND BEYOND to ensure I was comfortable and satisfied.  She even called my room the next day to make sure my stay was still going well!!!!  I rarely have an experience that makes me go out of my way to give a review or compliment but Lisa's professionalism and patience was FAR BEYOND exceptional! Thanks Lisa and thank you Drury for employing such a great person! TWO THUMBS UP AND 5 STARS FOR GREAT CUSTOMER SERVICE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r436553312-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436553312</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>Yet another excellent value Drury</t>
+  </si>
+  <si>
+    <t>Only a one-night stop but this confirmed our loyalty to the chain. Well-equipped room as always, and the evening kickback and extensive breakfast really reduce holiday costs. Staff, as elsewhere, are friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r436448317-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436448317</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>Great experience, great hotel!</t>
+  </si>
+  <si>
+    <t>I was here on business for one night.  It's probably the best hotel I never heard of.  According to the placard in the elevator, there is one in Orlando and I didn't know that either.  No matter, now that ai know, I will make an effort to stay there when I can.A big shout out to Kenya, who was kind enough to give me all the information to sign up as a rewards member.  She was great!The free hot breakfast was fantastic and very much appreciated.  Disappointed that we got in too late to enjoy the free happy hour with appetizers and drinks.  Maybe next time.I do have one complaint, however.  The floor in the dining room was sticky.  Not cool...Christian's Tailgate next to the hotel was amazing, but that's another review.I will be back, thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I was here on business for one night.  It's probably the best hotel I never heard of.  According to the placard in the elevator, there is one in Orlando and I didn't know that either.  No matter, now that ai know, I will make an effort to stay there when I can.A big shout out to Kenya, who was kind enough to give me all the information to sign up as a rewards member.  She was great!The free hot breakfast was fantastic and very much appreciated.  Disappointed that we got in too late to enjoy the free happy hour with appetizers and drinks.  Maybe next time.I do have one complaint, however.  The floor in the dining room was sticky.  Not cool...Christian's Tailgate next to the hotel was amazing, but that's another review.I will be back, thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r431611084-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431611084</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Ingeniero</t>
+  </si>
+  <si>
+    <t>Good for the price. 45 minutes away from airport. Close to shopping malls and restaurants. Nice clean.Same food whole week.Good hospitality. Large bedrooms. Wifi all over and free. Free breakfast, dinner and drinks.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r405902304-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>405902304</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Not ideal.</t>
+  </si>
+  <si>
+    <t>We stayed at the Drury Inn &amp; Suites while my husband was in Houston for business. It was ok. The front desk was friendly/helpful but the housekeeping was less than adequate. We had the do not disturb sign on our door, as I had a terrible headache and hadn't slept well the night before. Was awakened at 9am with housekeeping banging on the door, regardless of the sign do not disturb. Anyway was up and showered and out of the room by 11, do not disturb sign removed. Came back that night. Still no towels nor clean room. Asked the next morning for housekeeping/towels before we left. Came back at lunch to none. Had to ask once again. The person who made breakfast was lovely though. Kudos to her!MoreShow less</t>
+  </si>
+  <si>
+    <t>DruryHotels, General Manager at Drury Inn &amp; Suites Houston West Energy Corridor, responded to this reviewResponded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Drury Inn &amp; Suites while my husband was in Houston for business. It was ok. The front desk was friendly/helpful but the housekeeping was less than adequate. We had the do not disturb sign on our door, as I had a terrible headache and hadn't slept well the night before. Was awakened at 9am with housekeeping banging on the door, regardless of the sign do not disturb. Anyway was up and showered and out of the room by 11, do not disturb sign removed. Came back that night. Still no towels nor clean room. Asked the next morning for housekeeping/towels before we left. Came back at lunch to none. Had to ask once again. The person who made breakfast was lovely though. Kudos to her!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r405797576-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>405797576</t>
+  </si>
+  <si>
+    <t>Quick stop for the weekend</t>
+  </si>
+  <si>
+    <t>We have never stayed at this hotel chain before and were pleasantly surprised and impressed with the value. We were there for a Saturday night, family of four (2 adults, 2 kids), and when we walked into the room (1 king, sleeper sofa, crib for the baby), we were impressed with the room size. It was huge! The crib for the baby was actually a pack'n'play provided by the hotel (I had requested it after making the reservation online for an additional $10). The bathroom lights on the outside of the bathroom threw me at first but I did like the wall-mounted soap/shampoo dispenser. They did NOT have a hair dryer in the bathroom (unless it was somewhere like in a closet but I didn't really search) so I wish I'd brought my own. They did have a mini-fridge and microwave in the room; the mini-fridge did NOT have a freezer compartment which kind of sucked because I was wanting to refreeze my ice pack for the cooler. They did have convenient ice machines though.The continental breakfast included quite a few of your standard buffet fare: cereal, fruit selection, oatmeal, waffle maker, eggs, potatoes, toast/bagel fixings. The staff were super friendly and the parking convenient. We'd definitely be willing to stay with this chain again and this location specifically. Thank you for an enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have never stayed at this hotel chain before and were pleasantly surprised and impressed with the value. We were there for a Saturday night, family of four (2 adults, 2 kids), and when we walked into the room (1 king, sleeper sofa, crib for the baby), we were impressed with the room size. It was huge! The crib for the baby was actually a pack'n'play provided by the hotel (I had requested it after making the reservation online for an additional $10). The bathroom lights on the outside of the bathroom threw me at first but I did like the wall-mounted soap/shampoo dispenser. They did NOT have a hair dryer in the bathroom (unless it was somewhere like in a closet but I didn't really search) so I wish I'd brought my own. They did have a mini-fridge and microwave in the room; the mini-fridge did NOT have a freezer compartment which kind of sucked because I was wanting to refreeze my ice pack for the cooler. They did have convenient ice machines though.The continental breakfast included quite a few of your standard buffet fare: cereal, fruit selection, oatmeal, waffle maker, eggs, potatoes, toast/bagel fixings. The staff were super friendly and the parking convenient. We'd definitely be willing to stay with this chain again and this location specifically. Thank you for an enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r382143525-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382143525</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Süper hotel</t>
+  </si>
+  <si>
+    <t>Süper hotel. Pools clean,jakuzi clean. Sauna is there.All staffes are helpfull and smile faces.Car park is clean and wide.Free pop corn and soda.Clean rooms and wide roms.Air freshner is perfect.Breakfast perfect.Hot drinking tea, hot water ,coffée and decaffeinated coffee. Everyday clean room.Free international phone 1 hour everyday.Free and speedy internet.Big elevator  .Dry cleaner is good.Tv is good.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r381360679-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381360679</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t>Drury Inn</t>
+  </si>
+  <si>
+    <t>Everyone is trying to help you for almost everything. Very Kindly stuff  and no strict rules. There is no noise in the hotel and also outside.There is a very nice loby. Watch here tv talk with friends etc.There are Pool ,Sports Center, Free Dinner with all beverages.In this area the best hotel you can stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r378118220-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378118220</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Nice staff and facilities.....but someone had their flea bag pet in our room before our stay</t>
+  </si>
+  <si>
+    <t>We've stayed at this hotel before and it is lovely. Simple facilities, clean rooms and friendly staff who goes overboard to treat you right. So when we were visiting family again this weekend we went straight to drury and didn't even look elsewhere. Unfortunately the hotels pet friendly policy caught up with them. First night hubby had a bite or two.  We found one flea. Mentioned it to desk staff. They changed bedding promptly and offered to change rooms. We stayed put, which in hind sight was a huge mistake. Wake up next morning and my husband had a dozen bites. Staff was very apologetic and comped us a night. Pulled out what looked like their policy manual to deal with it. Now we are home and hoping these critters haven't followed up. LotsOf laundry so far. We will see. I do really like this hotel and they handledFlawlessly but pet friendly hotels will definitely make me think twice before booking in the future!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>DruryHotels, General Manager at Drury Inn &amp; Suites Houston West Energy Corridor, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>We've stayed at this hotel before and it is lovely. Simple facilities, clean rooms and friendly staff who goes overboard to treat you right. So when we were visiting family again this weekend we went straight to drury and didn't even look elsewhere. Unfortunately the hotels pet friendly policy caught up with them. First night hubby had a bite or two.  We found one flea. Mentioned it to desk staff. They changed bedding promptly and offered to change rooms. We stayed put, which in hind sight was a huge mistake. Wake up next morning and my husband had a dozen bites. Staff was very apologetic and comped us a night. Pulled out what looked like their policy manual to deal with it. Now we are home and hoping these critters haven't followed up. LotsOf laundry so far. We will see. I do really like this hotel and they handledFlawlessly but pet friendly hotels will definitely make me think twice before booking in the future!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r365636702-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365636702</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Great Place !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have stayed several times at this Drury and were very satisfied with the quality of the place, food,  friendliness of the staff and services. We would recommend anyone looking for a hotel in the Houston area to check it out. We will be staying there again. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r365220909-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365220909</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent place to stay. </t>
+  </si>
+  <si>
+    <t>I came in with my elderly mother &amp; my sister in law for a memorial service. The weather got bad &amp; Houston flooded. We had to stay an unplanned second night. Timothy &amp; all of his staff were so amazing. They were short handed because of the flooding, but you would have never known. They were so attentive to those of us staying here &amp; they even kept breakfast out 30 extra minutes for us because we hadn't slept much with the bad weather overnight  &amp; we were running late. I wish I could give this hotel more than 5 stars! I definitely recommend it &amp; will be staying here again if I return to Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>I came in with my elderly mother &amp; my sister in law for a memorial service. The weather got bad &amp; Houston flooded. We had to stay an unplanned second night. Timothy &amp; all of his staff were so amazing. They were short handed because of the flooding, but you would have never known. They were so attentive to those of us staying here &amp; they even kept breakfast out 30 extra minutes for us because we hadn't slept much with the bad weather overnight  &amp; we were running late. I wish I could give this hotel more than 5 stars! I definitely recommend it &amp; will be staying here again if I return to Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r362565229-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362565229</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family getaway </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a wonderful stay with the kids after a long early drive . They loved the indoor pool. Spacious rooms and good location. Great hot breakfast and love the kickback with three free drinks and snacks are great treat as well. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r356425014-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356425014</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>We stay here every three months for my son's Dr appts.  It is close to the freeway and every restaurant you can imagine.  The rooms are meticulously clean as is the entire hotel.  The staff is always friendly.  They have free popcorn and sodas after 4PM, and have 2 free alcoholic beverages per adult after 5.  The hotel has 5:00 PM kickback and the munchies vary daily, but are always good.  In the morning, the breakfast can't be beat.  Drury Inn is easily the best hotel chain in Houston (or anywhere they have hotels).</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r352586294-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352586294</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>Prior to this stay I had never stayed at, let alone heard of, Drury Hotels.  The reservation was made by my new employer.  I was skeptical.  Now, after a three week stay I have to give it very good marks for everything.  I stayed in a regular room, not a suite and found it a little small but perfectly adequate.  The bed was comfortable with lots of pillows, The room was always kept clean and fresh.  Towels were a little scratchy but not too bad.  Nice tv and work space with lots of electrical outlets for computer, phone charger etc.  It has a small pool and hot tub/jaccuzzi as well as a very clean and up to date workout room.  They serve both breakfast in the morning and dinner/beer in the evening.  Dinner is nothing special but usually very adequate (pasta, fried chicken etc,) so I usually ate out (on my company) but I noticed many of the guests took advantage of it each evening.  Every staff member I met was helpful and friendly.  My secoond day I dropped my office building pass down the elevator shaft.  I anxiously reported it to the front desk and within ten muinets it was returned to me. There are many other much more expensive hotels in the west Houston energy corridor area but this Drury Hotel was a comfortable and pleasant place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Prior to this stay I had never stayed at, let alone heard of, Drury Hotels.  The reservation was made by my new employer.  I was skeptical.  Now, after a three week stay I have to give it very good marks for everything.  I stayed in a regular room, not a suite and found it a little small but perfectly adequate.  The bed was comfortable with lots of pillows, The room was always kept clean and fresh.  Towels were a little scratchy but not too bad.  Nice tv and work space with lots of electrical outlets for computer, phone charger etc.  It has a small pool and hot tub/jaccuzzi as well as a very clean and up to date workout room.  They serve both breakfast in the morning and dinner/beer in the evening.  Dinner is nothing special but usually very adequate (pasta, fried chicken etc,) so I usually ate out (on my company) but I noticed many of the guests took advantage of it each evening.  Every staff member I met was helpful and friendly.  My secoond day I dropped my office building pass down the elevator shaft.  I anxiously reported it to the front desk and within ten muinets it was returned to me. There are many other much more expensive hotels in the west Houston energy corridor area but this Drury Hotel was a comfortable and pleasant place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r351068209-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351068209</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>So quiet!</t>
+  </si>
+  <si>
+    <t>Was concerned that being right off I-10 in Houston there would be problems from the constant roar of traffic but our room could not have been any more quiet and peaceful. Very clean with exceptional breakfast bar and easy parking access. Pet friendly too which is what drew us to it. Rate was very reasonable.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r344955501-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344955501</t>
+  </si>
+  <si>
+    <t>02/04/2016</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Everything was top notch, Staff could not have been better, from the Assistant General Manager to the cleaning staff.  Would highly recommend this place for an great stay.  Only complaint was the freeway noise was a little louder than I like.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r344705504-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344705504</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>Great staff, great room, great food!</t>
+  </si>
+  <si>
+    <t>We were tired and hungry when arriving at the hotel.  The front desk staff person, Lisa Simmons, went out of her way to assist us in such a friendly and helpful way.  With staff like her the hotel will certainly continue to do well!  We left after one night totally rested and no longer hungry!  We will definitely return again when our travels take us to Texas.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r342593208-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>342593208</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>Stay for cheer competition...</t>
+  </si>
+  <si>
+    <t>I just wanted to say "Thank You" and kudos to the staff here.  My family and I stayed at this hotel this past weekend and it was a fantastic stay!  From check-in to check-out, we felt like a priority.  The popcorn at check-in was a huge plus for my 5-year-old!  The hot breakfast in the mornings was perfect.  The heated pool was a huge plus, which is the main reason we booked here.  Again, my 5-year-old was thrilled about this!  I can not say enough good about the staff and management here.  They were all so friendly and personable!  Great job all the way around, Drury!  This is our new go-to hotel when staying in Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I just wanted to say "Thank You" and kudos to the staff here.  My family and I stayed at this hotel this past weekend and it was a fantastic stay!  From check-in to check-out, we felt like a priority.  The popcorn at check-in was a huge plus for my 5-year-old!  The hot breakfast in the mornings was perfect.  The heated pool was a huge plus, which is the main reason we booked here.  Again, my 5-year-old was thrilled about this!  I can not say enough good about the staff and management here.  They were all so friendly and personable!  Great job all the way around, Drury!  This is our new go-to hotel when staying in Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r334806609-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334806609</t>
+  </si>
+  <si>
+    <t>12/24/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent service. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have never had as good customer service as my wife and I did at this hotel. Joe the assistant manager was a pleasure to talk at the evening happy hour. Great food and free drinks even cocktails for free during happy hour. Can't beat the value and service at this hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r334520608-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334520608</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>Friendly &amp; accomodating staff</t>
+  </si>
+  <si>
+    <t>After nearly a month on a road trip from the East Coast to the West Coast, we came across Drury Inns. All were exceptional, but we enjoyed the exceptional warmth of the front desk staff &amp; manager at this hotel. Rooms were clean &amp; well appointed &amp; were reasonably priced. The 5:30p "kickback" with included food &amp; cocktails was welcomed after a long day's drive. Mr. Rosenberger was professional, but knew how to make you feel welcome &amp; comfortable, &amp; he encouraged guests to report any issues so he could remedy them immediately. There were no issues, however. The beds are comfortable &amp; the included breakfast offerings were hot, fresh, &amp; adequate! We will definitely consider this hotel when returning to this area &amp; will recommend it to others traveling to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>After nearly a month on a road trip from the East Coast to the West Coast, we came across Drury Inns. All were exceptional, but we enjoyed the exceptional warmth of the front desk staff &amp; manager at this hotel. Rooms were clean &amp; well appointed &amp; were reasonably priced. The 5:30p "kickback" with included food &amp; cocktails was welcomed after a long day's drive. Mr. Rosenberger was professional, but knew how to make you feel welcome &amp; comfortable, &amp; he encouraged guests to report any issues so he could remedy them immediately. There were no issues, however. The beds are comfortable &amp; the included breakfast offerings were hot, fresh, &amp; adequate! We will definitely consider this hotel when returning to this area &amp; will recommend it to others traveling to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r325526417-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325526417</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Excellent Everytime!</t>
+  </si>
+  <si>
+    <t>Love this hotel.  Love my stay and the staff.  Will stay here everytime I visit  Houston. Its a direct path to College Station for me and my family to visit my son.  Love it.  The manager is VERY hands on and always has a smile on his face and I know that can be very hard dealing with the public.  I applaud him and his staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r305106987-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>305106987</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>Just Like Before</t>
+  </si>
+  <si>
+    <t>Used to have friends that lived inHouston and always stayed here when visiting. That was 5 years ago. Decided to stay in Houston on our way to a Galveston cruise and booked the Dreary due to prior stays. Was so happy that things had only gotten better! New look in the lobby and dining, but all else was the same-clean, friendly,welcoming,more than one would expect for the price!! Very satisfied and will always puck Dreary over the many other choices!!!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r299664613-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299664613</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Excellent staff.  Great location. I was amazed with the room and the kindness of the staff. The GM was a super nice guy.  We decided to stay in one day he called us to let us know if we needed anything he was there for us. I highly recommend this location!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r296779134-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296779134</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>NICEST, MOST HELPFUL STAFF!</t>
+  </si>
+  <si>
+    <t>I love the Drury chain. Dependable, clean, very reasonable rates. What I love the most (and especially about this particular location), is the awesome staff. Everyone is nice and helpful. Everyone has a great attitude. Even if the guest checking in before me was a total nightmare, when I step up to the counter, they are just all smiles. Tonya (I'm sorry, I'm terrible with names...I think that's her...blondish hair and super sweet) never fails to brighten my day. If I need it, she gets it for me. If I'm lost, she goes out of her way to walk me through it. I travel to Houston on business, normally, but the last time I was there, I was going to be stuck in a hospital waiting room for hours, waiting on a sick family member, and I had forgotten to bring a book. This fantastic customer service SUPERSTAR literally folds down the corner of the page she was on (coming back from her lunch), and hands me her book!!!  Who does that?!?!  I own a couple of tire stores, and believe me...if I could find a few more employees like her, I'd be thrilled. Hmmm...I wonder if she'd consider a career change.... ;-).  But seriously, the Drury, in general has wonderful people, and it's the reason I keep coming back. Great customer service is not easy to find, these days. I treasure it when I do.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I love the Drury chain. Dependable, clean, very reasonable rates. What I love the most (and especially about this particular location), is the awesome staff. Everyone is nice and helpful. Everyone has a great attitude. Even if the guest checking in before me was a total nightmare, when I step up to the counter, they are just all smiles. Tonya (I'm sorry, I'm terrible with names...I think that's her...blondish hair and super sweet) never fails to brighten my day. If I need it, she gets it for me. If I'm lost, she goes out of her way to walk me through it. I travel to Houston on business, normally, but the last time I was there, I was going to be stuck in a hospital waiting room for hours, waiting on a sick family member, and I had forgotten to bring a book. This fantastic customer service SUPERSTAR literally folds down the corner of the page she was on (coming back from her lunch), and hands me her book!!!  Who does that?!?!  I own a couple of tire stores, and believe me...if I could find a few more employees like her, I'd be thrilled. Hmmm...I wonder if she'd consider a career change.... ;-).  But seriously, the Drury, in general has wonderful people, and it's the reason I keep coming back. Great customer service is not easy to find, these days. I treasure it when I do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r290452355-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290452355</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Wonderful staff</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay. Great staff. We were here for my Grandmothers funeral. Our car would not start the next morning (new car) The Front desk quickly brought jumper cables and we were on our way! Thank You</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r286213109-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286213109</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel, lacking restaurants around it</t>
+  </si>
+  <si>
+    <t>The room and hotel are wonderful. The pool is indoor, which isn't great, but the only real issue was local restaurants to the hotel. Traffic was a typical city type with busy intersections, which ruled out walking.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r282129343-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282129343</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>A cut above the rest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not too many nice hotels offer a buffet style breakfast and dinner along with cocktails. We did not have to purchase any meals unless we just wanted to go out. Great relaxing getaway and home style setting. If I had to say anything against my stay it would be the absence of a dvr for television viewing. I will NEVER stay @ a different brand hotel again unless I can't find a Drury. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r275137581-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275137581</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Great Stay, Great Location</t>
+  </si>
+  <si>
+    <t>I will always stay at the Drury from now on.  The location was great, staff great, room clean and very quiet from outside noise.  I thought this was a plus.  The morning breakfast was nice and very convenient.  The after 5:00 wind down was great.  The check out was exceptionally easy and quick.  I recommend this hotel.  I stayed in the room with the suite and it worked out great.  We had our own little sitting den area.  Loved the recliner!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r271013354-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271013354</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>A Pleasant Surpise</t>
+  </si>
+  <si>
+    <t>Due to a large convention being in town we were unable to get reservations at any of our usual national chain hotels but were able to get space at the Drury Inn.  Never having stayed at one of this chain's facilities before we were somewhat unsure of what we would find but had a pleasant surprise as the hotel was clean, the rooms were comfortable and, perhaps most impressively of all, the staff we encountered went out of their way to make our two-day stay a good one.   The location is not ideal for someone on vacation but for a business trip it is much more than adequate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r269162728-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269162728</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>This is my Houston hotel :-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I absolutely love this Drury location. The staff is so friendly and helpful. The whole property is in excellent condition. It's located near many excellent restaurants and shopping centers. I only stay here when visiting family in the city. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r266731853-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266731853</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Jailhouse</t>
+  </si>
+  <si>
+    <t>Had a late check-in, 12:15 AM. Had to wait inside the security double doors for a receptionist. Felt more like a Knights Inn or a money exchange than a comfortable place to stay.   Fitness room is more like a room with 3 treadmills and an elliptical.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>DruryHotels, General Manager at Drury Inn &amp; Suites Houston West Energy Corridor, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Had a late check-in, 12:15 AM. Had to wait inside the security double doors for a receptionist. Felt more like a Knights Inn or a money exchange than a comfortable place to stay.   Fitness room is more like a room with 3 treadmills and an elliptical.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r255966751-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255966751</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>Good, Clean stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great value! This facility was a perfect fit for my business trip.  It was close to my training and had a delicious hot breakfast.  The road noise was a little on the loud side and I prefer a little stronger shower pressure, but overall a good, clean hotel.  Nothing real fancy but definitely got the job done! </t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r253764586-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253764586</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>Bad High School Reunion Turned Completely Around!</t>
+  </si>
+  <si>
+    <t>We experienced a quick check-in.  Our room had been newly renovated and smelled very faintly of paint.  This place felt a complete 360 from the Six Motel down the street.  It was quiet.  We could hardly hear any hint of traffic from the congested street.  I admit that it was difficult to get into like MJK636 mentioned--but we are from San Antonio.  We can handle anything!There was food offered early in the evening and for breakfast.  It wasn't bad--and it was FREE.  If we wanted anything better, we would have cooked for ourselves and brought food.I will look for the Drury Inn wherever I need a place to stay in a big city.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We experienced a quick check-in.  Our room had been newly renovated and smelled very faintly of paint.  This place felt a complete 360 from the Six Motel down the street.  It was quiet.  We could hardly hear any hint of traffic from the congested street.  I admit that it was difficult to get into like MJK636 mentioned--but we are from San Antonio.  We can handle anything!There was food offered early in the evening and for breakfast.  It wasn't bad--and it was FREE.  If we wanted anything better, we would have cooked for ourselves and brought food.I will look for the Drury Inn wherever I need a place to stay in a big city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r248597010-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248597010</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>Awkward location</t>
+  </si>
+  <si>
+    <t>Accessing this hotel is NOT easy, and the staff while aware of the situation makes no effort to assist you in entering the property from the main highway. The place is rather friendly, maybe too, there were several incidents of street people in the hotel wondering through the halls, and at the buffet. Wake up calls were either not delivered or delivered late, the happy hour food was mostly non existent as was the service.  Service in general was poor, 2 days to get a box kleenex then 2 boxes within 15 minutes, daily cleaning was fair but the room had remnant from someone else when we checked in. Safety, and service are important factors in travel and this hotel needs help!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>DruryHotels, General Manager at Drury Inn &amp; Suites Houston West Energy Corridor, responded to this reviewResponded January 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2015</t>
+  </si>
+  <si>
+    <t>Accessing this hotel is NOT easy, and the staff while aware of the situation makes no effort to assist you in entering the property from the main highway. The place is rather friendly, maybe too, there were several incidents of street people in the hotel wondering through the halls, and at the buffet. Wake up calls were either not delivered or delivered late, the happy hour food was mostly non existent as was the service.  Service in general was poor, 2 days to get a box kleenex then 2 boxes within 15 minutes, daily cleaning was fair but the room had remnant from someone else when we checked in. Safety, and service are important factors in travel and this hotel needs help!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r244834970-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244834970</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>Friendly Staff, Convenient Location</t>
+  </si>
+  <si>
+    <t>This was my first stay at this location. I selected it due to its proximity to a client and my typical hotel was sold out. I have enjoyed Drury Inn's in the past and appreciated their practical, nice but not over the top decor and furnishings. I also appreciate the little things - free phone calls, happy hour, etc.I found this location to an ok option for the area. The front desk and happy hour staff were extremely pleasant and helpful. That tried to make things easy and enjoyable. My room was fine, appeared to be clean and comfortable. The bed/mattress in my room was ok. The wake up call was timely. The internet worked well. I had plenty of hot water. Parking was plenty and available.One additional note - it is very convenient to the highway but I never heard traffic noise once. I did hear a neighbors cell phone or possibly instrument playing all night but no traffic noise at all.I would advise that this is not a newly renovated location. It doesn't feel old and dark, but it's not new or modern if that's what you're seeking. I did see a pool and fitness area but I did not use them.There is a sports bar next door that serves decent food. We appreciated that it was easy to walk to and from.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was my first stay at this location. I selected it due to its proximity to a client and my typical hotel was sold out. I have enjoyed Drury Inn's in the past and appreciated their practical, nice but not over the top decor and furnishings. I also appreciate the little things - free phone calls, happy hour, etc.I found this location to an ok option for the area. The front desk and happy hour staff were extremely pleasant and helpful. That tried to make things easy and enjoyable. My room was fine, appeared to be clean and comfortable. The bed/mattress in my room was ok. The wake up call was timely. The internet worked well. I had plenty of hot water. Parking was plenty and available.One additional note - it is very convenient to the highway but I never heard traffic noise once. I did hear a neighbors cell phone or possibly instrument playing all night but no traffic noise at all.I would advise that this is not a newly renovated location. It doesn't feel old and dark, but it's not new or modern if that's what you're seeking. I did see a pool and fitness area but I did not use them.There is a sports bar next door that serves decent food. We appreciated that it was easy to walk to and from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r244544582-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244544582</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>I reviewed this hotel a month and a half ago but unfortunately my stay here on my current visit is drastically different. Hair that isn't mine was found in my bedding and it matched the hair in the shower. This leads me to believe that my king two room suite could have been cleaned better. My 2nd issue is the gym. There were no more sanitation anti-bacterial wipes so I asked the front desk. I was told that they were out and but they would send housekeeping in. I waited and waited, finally I went back to the front desk. The front desk called housekeeping again. The cleaning lady shows up with a dry towel and says "it dirty??". I DON'T WANT TO SIT ON OTHER PEOPLE'S BUTT SWEAT! Please don't waste my time! Next time I will go buy my own wipes ... Oh wait there won't be a next time because I will be staying elsewhere. You just lost a customer who stays at your hotel every month for 5 days at a time due to employee attitudes and it being dirty MoreShow less</t>
+  </si>
+  <si>
+    <t>DruryHotels, General Manager at Drury Inn &amp; Suites Houston West Energy Corridor, responded to this reviewResponded December 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2014</t>
+  </si>
+  <si>
+    <t>I reviewed this hotel a month and a half ago but unfortunately my stay here on my current visit is drastically different. Hair that isn't mine was found in my bedding and it matched the hair in the shower. This leads me to believe that my king two room suite could have been cleaned better. My 2nd issue is the gym. There were no more sanitation anti-bacterial wipes so I asked the front desk. I was told that they were out and but they would send housekeeping in. I waited and waited, finally I went back to the front desk. The front desk called housekeeping again. The cleaning lady shows up with a dry towel and says "it dirty??". I DON'T WANT TO SIT ON OTHER PEOPLE'S BUTT SWEAT! Please don't waste my time! Next time I will go buy my own wipes ... Oh wait there won't be a next time because I will be staying elsewhere. You just lost a customer who stays at your hotel every month for 5 days at a time due to employee attitudes and it being dirty More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r236565283-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236565283</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I have being staying with Drury Inn Hotels for some time now but I have to say the staff at this location were top notch. They were very friendly and the hotel was exceptionally clean. To the staff at this hotel keep up the great work!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r235919435-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235919435</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>Great Night</t>
+  </si>
+  <si>
+    <t>We decided to stay at this hotel due to the accessibility to the Toyota Center (all of the hotels in that area were sold out due to the Eagle's concert), it was a little bit more than we usually pay, but wow was it worth it.  First off, the front desk clerk who checked us in was GREAT, friendly, smiling, seemed to appreciate us being there.  Next, they offer a hot evening "snack" and free soda/water/beer for 2 hours each evening.  The snack included nachos, hot dogs, salad and a few other items.  This is given at no extra change.  They also have a hot breakfast, but we slept in the next morning and sadly missed that so I can't comment on the quality.  We enjoyed sitting down and visiting with some of the other guests and the staff.  
+The room was very clean, it was a 2 bedroom suite.  The bed was probably the best hotel bed I have ever slept in, it was PERFECT!!!!!  The bathroom had dispensers with soap, shampoo and conitioner.  I found these to be better than most hotel rooms.  
+We would definitely stay at this hotel again, it really made me a fan of this chain of hotels if they all treat their guests like this one, it would be a HUGE success!!!!!!!!!!  The only draw back was that there are no eating places close to this hotel.  So, if you are out late...We decided to stay at this hotel due to the accessibility to the Toyota Center (all of the hotels in that area were sold out due to the Eagle's concert), it was a little bit more than we usually pay, but wow was it worth it.  First off, the front desk clerk who checked us in was GREAT, friendly, smiling, seemed to appreciate us being there.  Next, they offer a hot evening "snack" and free soda/water/beer for 2 hours each evening.  The snack included nachos, hot dogs, salad and a few other items.  This is given at no extra change.  They also have a hot breakfast, but we slept in the next morning and sadly missed that so I can't comment on the quality.  We enjoyed sitting down and visiting with some of the other guests and the staff.  The room was very clean, it was a 2 bedroom suite.  The bed was probably the best hotel bed I have ever slept in, it was PERFECT!!!!!  The bathroom had dispensers with soap, shampoo and conitioner.  I found these to be better than most hotel rooms.  We would definitely stay at this hotel again, it really made me a fan of this chain of hotels if they all treat their guests like this one, it would be a HUGE success!!!!!!!!!!  The only draw back was that there are no eating places close to this hotel.  So, if you are out late and need a late night snack, you have to settle for convenience store food!MoreShow less</t>
+  </si>
+  <si>
+    <t>We decided to stay at this hotel due to the accessibility to the Toyota Center (all of the hotels in that area were sold out due to the Eagle's concert), it was a little bit more than we usually pay, but wow was it worth it.  First off, the front desk clerk who checked us in was GREAT, friendly, smiling, seemed to appreciate us being there.  Next, they offer a hot evening "snack" and free soda/water/beer for 2 hours each evening.  The snack included nachos, hot dogs, salad and a few other items.  This is given at no extra change.  They also have a hot breakfast, but we slept in the next morning and sadly missed that so I can't comment on the quality.  We enjoyed sitting down and visiting with some of the other guests and the staff.  
+The room was very clean, it was a 2 bedroom suite.  The bed was probably the best hotel bed I have ever slept in, it was PERFECT!!!!!  The bathroom had dispensers with soap, shampoo and conitioner.  I found these to be better than most hotel rooms.  
+We would definitely stay at this hotel again, it really made me a fan of this chain of hotels if they all treat their guests like this one, it would be a HUGE success!!!!!!!!!!  The only draw back was that there are no eating places close to this hotel.  So, if you are out late...We decided to stay at this hotel due to the accessibility to the Toyota Center (all of the hotels in that area were sold out due to the Eagle's concert), it was a little bit more than we usually pay, but wow was it worth it.  First off, the front desk clerk who checked us in was GREAT, friendly, smiling, seemed to appreciate us being there.  Next, they offer a hot evening "snack" and free soda/water/beer for 2 hours each evening.  The snack included nachos, hot dogs, salad and a few other items.  This is given at no extra change.  They also have a hot breakfast, but we slept in the next morning and sadly missed that so I can't comment on the quality.  We enjoyed sitting down and visiting with some of the other guests and the staff.  The room was very clean, it was a 2 bedroom suite.  The bed was probably the best hotel bed I have ever slept in, it was PERFECT!!!!!  The bathroom had dispensers with soap, shampoo and conitioner.  I found these to be better than most hotel rooms.  We would definitely stay at this hotel again, it really made me a fan of this chain of hotels if they all treat their guests like this one, it would be a HUGE success!!!!!!!!!!  The only draw back was that there are no eating places close to this hotel.  So, if you are out late and need a late night snack, you have to settle for convenience store food!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r234472899-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234472899</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Great experience. Very accommodating staff</t>
+  </si>
+  <si>
+    <t>We booked three rooms for myself and some out of town guests to attend a three day event in Katy. At 3am on the first day when I checked into my room I was overcome with the smell of cigarette smoke but was too tired to request a room change. The next morning when I requested a change of room I was given a refund for that night and an apology. Breakfast was a welcome change from the regular continental style at other hotels. Even though the hotel is located in an Industrial part of town it is well maintained and very welcoming. All the staff was great. However, parking could be a challenge if you are among the last guests for the night since the parking lot is not the regular Texas style size. Overall I will recommend this hotel and return as a guest should the need ever arise. MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked three rooms for myself and some out of town guests to attend a three day event in Katy. At 3am on the first day when I checked into my room I was overcome with the smell of cigarette smoke but was too tired to request a room change. The next morning when I requested a change of room I was given a refund for that night and an apology. Breakfast was a welcome change from the regular continental style at other hotels. Even though the hotel is located in an Industrial part of town it is well maintained and very welcoming. All the staff was great. However, parking could be a challenge if you are among the last guests for the night since the parking lot is not the regular Texas style size. Overall I will recommend this hotel and return as a guest should the need ever arise. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r216129638-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216129638</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>This Drury Inn was no exception to the hotel chain’s exceptional service, amenities, and value.  Happy Hour with heavy Hors d’ Oeuvres.  Hot breakfast with all the trimmings.  Good location right on IH 10.  Staff was super friendly and helpful.  Room was very clean and quiet (We were on side away from freeway).</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r207474406-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207474406</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>For the price, this is a great place to stay.  The property is older, but it is well maintained and freshened continually to keep it current.  Having the "Kick Back" with free food and free adult or other beverage is a great convenience for the business traveler who is looking to save time and have a quick dinner.  Breakfast is convenient and has a decent selection to please all types of tastes. The staff goes above and beyond every day to make the guest stay as pleasant as possible.  Rooms are very comfortable and the television has a large, varied selection, not the usual few regular channels, four movie channels and ten sports channels that is designed to please the male business traveler. I have tried other hotels in the area but keep coming back the Drury every time.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>For the price, this is a great place to stay.  The property is older, but it is well maintained and freshened continually to keep it current.  Having the "Kick Back" with free food and free adult or other beverage is a great convenience for the business traveler who is looking to save time and have a quick dinner.  Breakfast is convenient and has a decent selection to please all types of tastes. The staff goes above and beyond every day to make the guest stay as pleasant as possible.  Rooms are very comfortable and the television has a large, varied selection, not the usual few regular channels, four movie channels and ten sports channels that is designed to please the male business traveler. I have tried other hotels in the area but keep coming back the Drury every time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r205802166-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205802166</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>Great price! great breakfast! Totally worth staying here when we go visit relatives that live in Katy. I would recommend bringing a harder pillow though for those who aren't used to soft pillows. Hubby forgot his pillow at home so had a hard time sleeping. But the recliner there is also quite comfy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r196238659-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196238659</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>I have stayed at many hotels, but I haven't ever run across staff that were so courteous, friendly and who worked as hard to ensure that their guests enjoyed their stay.  I observed that every staff member - whether the managers, the front desk, the cleaning staff and even the chef spoke to every guest member and went out of their way to ensure that the needs of the guests were met.  I was also impressed that that a small hotel staff could accomplish so much.  Not surprisingly, the rooms were extremely clean.  The breakfast and dinner were good.  The indoor pool well kept and was very much appreciated by our kids.  I guess if I could put my experience at in one word it would be "Phenomenal!"MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at many hotels, but I haven't ever run across staff that were so courteous, friendly and who worked as hard to ensure that their guests enjoyed their stay.  I observed that every staff member - whether the managers, the front desk, the cleaning staff and even the chef spoke to every guest member and went out of their way to ensure that the needs of the guests were met.  I was also impressed that that a small hotel staff could accomplish so much.  Not surprisingly, the rooms were extremely clean.  The breakfast and dinner were good.  The indoor pool well kept and was very much appreciated by our kids.  I guess if I could put my experience at in one word it would be "Phenomenal!"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r187318721-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187318721</t>
+  </si>
+  <si>
+    <t>12/10/2013</t>
+  </si>
+  <si>
+    <t>Reservation Fail, Smoky Room, Had to Flee</t>
+  </si>
+  <si>
+    <t>I don't understand these great reviews. Then again, I didn't stay here very long. I specifically requested a nonsmoking room in the reservation. After checking in, we found the room to be very smoky. Called down to the front desk. The clerk said the hotel was sold out and that she would contact the manager and call back. After about 15 minutes and no call back, went down to the front desk to find out what was going on. She had not heard from the manager and had no other rooms to move us to. While she was pleasant and offered to comp us for the night, this was not acceptable to us. We requested a nonsmoking room for health reasons. We then spent the next hour on our laptop looking for another hotel nearby. As it turns out, this was not an easy task as every place in the area was also sold out. We finally found another place and canceled our stay with Drury. The room, btw, was quite large, with a sitting area separate from the bedroom. But the fixtures felt a bit old. And after being in the room for just an hour, we smelled of smoke and had to launder our clothes. FAIL.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>DruryHotels, General Manager at Drury Inn &amp; Suites Houston West Energy Corridor, responded to this reviewResponded December 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2013</t>
+  </si>
+  <si>
+    <t>I don't understand these great reviews. Then again, I didn't stay here very long. I specifically requested a nonsmoking room in the reservation. After checking in, we found the room to be very smoky. Called down to the front desk. The clerk said the hotel was sold out and that she would contact the manager and call back. After about 15 minutes and no call back, went down to the front desk to find out what was going on. She had not heard from the manager and had no other rooms to move us to. While she was pleasant and offered to comp us for the night, this was not acceptable to us. We requested a nonsmoking room for health reasons. We then spent the next hour on our laptop looking for another hotel nearby. As it turns out, this was not an easy task as every place in the area was also sold out. We finally found another place and canceled our stay with Drury. The room, btw, was quite large, with a sitting area separate from the bedroom. But the fixtures felt a bit old. And after being in the room for just an hour, we smelled of smoke and had to launder our clothes. FAIL.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r187155464-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187155464</t>
+  </si>
+  <si>
+    <t>12/09/2013</t>
+  </si>
+  <si>
+    <t>nicely surprised!</t>
+  </si>
+  <si>
+    <t>We had rather middle expectations for this hotel, but it turned out to be a very nice stay!  Nice room, very friendly and exceedingly helpful staff (mgr. and behind the counter).  Breakfast could be better, but still friendly lady.Good, convenient parking, and there is an Avis within walking distance.Several restaurants within walking distance.A nice sleep.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r167203193-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167203193</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay-highly recommend</t>
+  </si>
+  <si>
+    <t>We've never been disappointed at a Drury Inn and this one is excellent. Beautiful, comfortable room, good service, well priced, convenient location and pet friendly. Very clean and new looking bathroom fixtures. Good hot breakfast served in the morning at no extra cost.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r160590562-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160590562</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Will be back! Aka Houston West/ Energy Corridor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a nice, clean hotel. If I'd read more closely when I booked,  I would not have been surprised by the free drinks and free food in the evening! That was a nice touch. The staff were friendly and helpful. Not far the children's hospital in Katy. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r159934726-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159934726</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Great location, wonderful service, and all the extras are free!</t>
+  </si>
+  <si>
+    <t>Location is great. Right at I10 &amp; Hwy 6 intersection. Next door to Wyndam hotel. We were given a great group rate. Joe McCoy was overseeing the complimentary food and drink hours available in dining area. He was a prime example ofhow great customer service will have our team return. Joe was outgoing and helpful.  Across the street are both a Brother'd Pizza and Quizno's. Both I recommend and also had great service. Our room was so spacious and clean. And we were able to get a 1 pm check out. The free breakfast was good and we had same great service by the sweetest lady. She was just adorable and treated everyone like family. We will for sure book here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Location is great. Right at I10 &amp; Hwy 6 intersection. Next door to Wyndam hotel. We were given a great group rate. Joe McCoy was overseeing the complimentary food and drink hours available in dining area. He was a prime example ofhow great customer service will have our team return. Joe was outgoing and helpful.  Across the street are both a Brother'd Pizza and Quizno's. Both I recommend and also had great service. Our room was so spacious and clean. And we were able to get a 1 pm check out. The free breakfast was good and we had same great service by the sweetest lady. She was just adorable and treated everyone like family. We will for sure book here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r153794739-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153794739</t>
+  </si>
+  <si>
+    <t>03/05/2013</t>
+  </si>
+  <si>
+    <t>Great Staff, Tiny Rooms!</t>
+  </si>
+  <si>
+    <t>Stayed a Saturday night, March 2, 2013. With AAA discount, I paid about $94 plus tax. Our first time a a Drury Hotel. Very easy checkin with very nice Asst. GM, Joseph MCoy. He was one of the best hotel employees I have ever seen. He was all over the place visiting with guests, helping the food array, etc.The evening complimentary cocktails were a bust. Waited in a line for a while then got a flat beer and my friend got a watered down cocktail. They were so bad, we did not finish them. Looked like the hot food was hot dogs. Lots and lots of kids were taking advantage of them. So we went next door to the Cattle Guard Restaurant. Sunday morning I ventured down to the complimentary breakfast. It was one of the best at a hotel I have seen. Lots of options. Lots of attendants to help. This hotel has aresome staff. Congrats to mangement. The only real issue I had, and it is a big one, is that the room we had was teeny tiny. I mean I have had bigger rooms on a cruise ship. Really. The bathroom door had been shaved down to fit so that it would not hit the toilet. Two people cannot possibly brush their teeth at same time.This alone will give me pause before staying at a Drury again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Stayed a Saturday night, March 2, 2013. With AAA discount, I paid about $94 plus tax. Our first time a a Drury Hotel. Very easy checkin with very nice Asst. GM, Joseph MCoy. He was one of the best hotel employees I have ever seen. He was all over the place visiting with guests, helping the food array, etc.The evening complimentary cocktails were a bust. Waited in a line for a while then got a flat beer and my friend got a watered down cocktail. They were so bad, we did not finish them. Looked like the hot food was hot dogs. Lots and lots of kids were taking advantage of them. So we went next door to the Cattle Guard Restaurant. Sunday morning I ventured down to the complimentary breakfast. It was one of the best at a hotel I have seen. Lots of options. Lots of attendants to help. This hotel has aresome staff. Congrats to mangement. The only real issue I had, and it is a big one, is that the room we had was teeny tiny. I mean I have had bigger rooms on a cruise ship. Really. The bathroom door had been shaved down to fit so that it would not hit the toilet. Two people cannot possibly brush their teeth at same time.This alone will give me pause before staying at a Drury again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r151431188-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151431188</t>
+  </si>
+  <si>
+    <t>02/04/2013</t>
+  </si>
+  <si>
+    <t>Helpful Hotel Staff</t>
+  </si>
+  <si>
+    <t>I stayed here a couple of nights.  I didn't know my way around Houston and the front desk staff was very helpful in getting me to my destinations.  I had a suite and it was clean and comfortable.  There were two problems that I meant to bring to management's attention - the remote in the bedroom did not work and the thermostat in the bedroom did not work.  I hope that they read this and correct these problems.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r150539173-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150539173</t>
+  </si>
+  <si>
+    <t>01/24/2013</t>
+  </si>
+  <si>
+    <t>Comfy, great value</t>
+  </si>
+  <si>
+    <t>Easy to find off I-10, clean hotel and rooms, always comfy beds, and pet friendly. We were able to check in early and everyone was super helpful. They suggested close by restaurants and gave change for the guest laundry (which is on second floor). Loved the breakfast!</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r142326474-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142326474</t>
+  </si>
+  <si>
+    <t>10/08/2012</t>
+  </si>
+  <si>
+    <t>Lovely Hotel</t>
+  </si>
+  <si>
+    <t>Checked in to this hotel after having stayed in Drury Inn San Antonio,lovely hotel fantastic rooms and very helpful staff,the free drinks and 5.30pm kickback is great,check it out you will love it. Great shopping mall's near by .</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r139190633-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139190633</t>
+  </si>
+  <si>
+    <t>09/02/2012</t>
+  </si>
+  <si>
+    <t>God bless you</t>
+  </si>
+  <si>
+    <t>My family and I states as our home in La was beig destroyed by Hurricane Isaac and the staff from the maids maintenance people desk attendants I mean everyone was soooo wonderful helpful and friendly they really made us feel like we were at home apart of the Texas family I've always heard everything is bigger in Texas and as far as hearts go you better believe it</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r138403676-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138403676</t>
+  </si>
+  <si>
+    <t>08/26/2012</t>
+  </si>
+  <si>
+    <t>Nice, clean, and good value hotel</t>
+  </si>
+  <si>
+    <t>Great stay at this nice hotel. As with other Drury Inn hotels, the staff are super friendly. Internet is fast. The free food and drinks are a nice addition. Room is clean. Note: for some reason, I could not enter the exact hotel address into my TomTom GPS but the longitude/latitude coordinates were printed on the confirmation page and could be used instead. Another note: bring earplugs which you can get at any hardware store when traveling just in case you get a noisy room by the highway - it's bound to happen sometimes !</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r127704091-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127704091</t>
+  </si>
+  <si>
+    <t>04/11/2012</t>
+  </si>
+  <si>
+    <t>Maybe 3.5 Stars......</t>
+  </si>
+  <si>
+    <t>I've stayed at many Drury Inns across the US, so I'm a fan.This Drury is up to par in every respect, but it's right on Highway 6 and Interstate 10, so there's more road noise than I'm used to. Other than that, it's great.Rooms are well equipped with micro, fridge, wide-screen TV, good bedding, above average towells, etc. Staff is excellent which I've come to expect at this chain.Breakfast at Drury's is above average and pretty standard at all the hotels - sausage, eggs, waffles, french toast, bagels, yogurt, fruit, etc, etc. The dining area in this hotel is smaller than in the new Drurys but it works. Happy hour snacks are  pretty good, dining next door (Cattleguard) and across the street (Brothers Pizza) is really good.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I've stayed at many Drury Inns across the US, so I'm a fan.This Drury is up to par in every respect, but it's right on Highway 6 and Interstate 10, so there's more road noise than I'm used to. Other than that, it's great.Rooms are well equipped with micro, fridge, wide-screen TV, good bedding, above average towells, etc. Staff is excellent which I've come to expect at this chain.Breakfast at Drury's is above average and pretty standard at all the hotels - sausage, eggs, waffles, french toast, bagels, yogurt, fruit, etc, etc. The dining area in this hotel is smaller than in the new Drurys but it works. Happy hour snacks are  pretty good, dining next door (Cattleguard) and across the street (Brothers Pizza) is really good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r127634933-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127634933</t>
+  </si>
+  <si>
+    <t>04/10/2012</t>
+  </si>
+  <si>
+    <t>GREAT place to stay!</t>
+  </si>
+  <si>
+    <t>To me, Drury Inns are like Hampton Inns - they're very consistent.  This one is one I could comment on more since I just stayed here for 11 nights.  It has a great location right on the northbound lanes of Rt. 6, and right next to I-10.  The room was clean, comfortable, quiet.  There are a lot of choices for TV viewing, though I didn't have much time for that.  I LIKE the fact that you can program the AC unit so that the fan keeps running, even if the compressor shuts off.  I'm one of those who needs "white noise" to sleep.
+Drurys provide breakfast and supper.  In my opinion, breakfast is better because all of the normal breakfast foods are available - fruit, cereals (including hot oatmeal), eggs, pastries, waffles, pancakes, etc. etc.  Supper is a little less exciting in that it's mainly hot dogs, chips, etc.  They do provide a basic salad of mainly lettuce.  Hot baked potatoes and tortilla chips are available, too.  Free soda is also offered.  After supper, popcorn is offered.  So, at least there is something available for supper if you don't have alternate plans.
+One wierd thing - the toilet!  Where, oh where, are the normal toilets that flush normally?  In the mad rush to be "green" about everything, many hotels have opted for whacko toilets that use less water.  The problem is that they often don't flush everything! --- and you...To me, Drury Inns are like Hampton Inns - they're very consistent.  This one is one I could comment on more since I just stayed here for 11 nights.  It has a great location right on the northbound lanes of Rt. 6, and right next to I-10.  The room was clean, comfortable, quiet.  There are a lot of choices for TV viewing, though I didn't have much time for that.  I LIKE the fact that you can program the AC unit so that the fan keeps running, even if the compressor shuts off.  I'm one of those who needs "white noise" to sleep.Drurys provide breakfast and supper.  In my opinion, breakfast is better because all of the normal breakfast foods are available - fruit, cereals (including hot oatmeal), eggs, pastries, waffles, pancakes, etc. etc.  Supper is a little less exciting in that it's mainly hot dogs, chips, etc.  They do provide a basic salad of mainly lettuce.  Hot baked potatoes and tortilla chips are available, too.  Free soda is also offered.  After supper, popcorn is offered.  So, at least there is something available for supper if you don't have alternate plans.One wierd thing - the toilet!  Where, oh where, are the normal toilets that flush normally?  In the mad rush to be "green" about everything, many hotels have opted for whacko toilets that use less water.  The problem is that they often don't flush everything! --- and you wind up flushing 3 or 4 times to get everything down and use even more water, and certainly more time. One note of caution - This hotel is very easy to get to EXCEPT if you're coming toward it on Rt. 6 from the north.  In that case, follow these directions: Get off Rt. 6 on the two right lanes marked for I-10.  The exit ramp will crest a hill and then come down to the first light.  MAKE SURE you are in the third lane (NOT in either of the left two lanes since BOTH of them are left turn ONLY.  I watched three people get tickets for going straight from lane #2!).  As soon as you go through this light, get into the FAR left lane.  Go through the next light.  At the third light, make a left from the far left lane (as though entering the ramp for I-10), but make a u-turn back onto the northbound lanes of Rt. 6.  Get into the far right lane, since the Drury will be just ahead past the first light.  Confused?  Sorry.  :-)  Hopefully not.MoreShow less</t>
+  </si>
+  <si>
+    <t>To me, Drury Inns are like Hampton Inns - they're very consistent.  This one is one I could comment on more since I just stayed here for 11 nights.  It has a great location right on the northbound lanes of Rt. 6, and right next to I-10.  The room was clean, comfortable, quiet.  There are a lot of choices for TV viewing, though I didn't have much time for that.  I LIKE the fact that you can program the AC unit so that the fan keeps running, even if the compressor shuts off.  I'm one of those who needs "white noise" to sleep.
+Drurys provide breakfast and supper.  In my opinion, breakfast is better because all of the normal breakfast foods are available - fruit, cereals (including hot oatmeal), eggs, pastries, waffles, pancakes, etc. etc.  Supper is a little less exciting in that it's mainly hot dogs, chips, etc.  They do provide a basic salad of mainly lettuce.  Hot baked potatoes and tortilla chips are available, too.  Free soda is also offered.  After supper, popcorn is offered.  So, at least there is something available for supper if you don't have alternate plans.
+One wierd thing - the toilet!  Where, oh where, are the normal toilets that flush normally?  In the mad rush to be "green" about everything, many hotels have opted for whacko toilets that use less water.  The problem is that they often don't flush everything! --- and you...To me, Drury Inns are like Hampton Inns - they're very consistent.  This one is one I could comment on more since I just stayed here for 11 nights.  It has a great location right on the northbound lanes of Rt. 6, and right next to I-10.  The room was clean, comfortable, quiet.  There are a lot of choices for TV viewing, though I didn't have much time for that.  I LIKE the fact that you can program the AC unit so that the fan keeps running, even if the compressor shuts off.  I'm one of those who needs "white noise" to sleep.Drurys provide breakfast and supper.  In my opinion, breakfast is better because all of the normal breakfast foods are available - fruit, cereals (including hot oatmeal), eggs, pastries, waffles, pancakes, etc. etc.  Supper is a little less exciting in that it's mainly hot dogs, chips, etc.  They do provide a basic salad of mainly lettuce.  Hot baked potatoes and tortilla chips are available, too.  Free soda is also offered.  After supper, popcorn is offered.  So, at least there is something available for supper if you don't have alternate plans.One wierd thing - the toilet!  Where, oh where, are the normal toilets that flush normally?  In the mad rush to be "green" about everything, many hotels have opted for whacko toilets that use less water.  The problem is that they often don't flush everything! --- and you wind up flushing 3 or 4 times to get everything down and use even more water, and certainly more time. One note of caution - This hotel is very easy to get to EXCEPT if you're coming toward it on Rt. 6 from the north.  In that case, follow these directions: Get off Rt. 6 on the two right lanes marked for I-10.  The exit ramp will crest a hill and then come down to the first light.  MAKE SURE you are in the third lane (NOT in either of the left two lanes since BOTH of them are left turn ONLY.  I watched three people get tickets for going straight from lane #2!).  As soon as you go through this light, get into the FAR left lane.  Go through the next light.  At the third light, make a left from the far left lane (as though entering the ramp for I-10), but make a u-turn back onto the northbound lanes of Rt. 6.  Get into the far right lane, since the Drury will be just ahead past the first light.  Confused?  Sorry.  :-)  Hopefully not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r124291703-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124291703</t>
+  </si>
+  <si>
+    <t>02/08/2012</t>
+  </si>
+  <si>
+    <t>Great value for the price</t>
+  </si>
+  <si>
+    <t>Hotel is in a good location off HWY 6. The staff is VERY friendly and attentive. Free breakfast is minimal but does the job and the free three drinks during happy hour doesn't hurt either. I've stayed here numerous times over the last three years and have never visited the pool. The workout room is very small but will work in a pinch. Rooms have everything you need for a business stay.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r118513028-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118513028</t>
+  </si>
+  <si>
+    <t>09/23/2011</t>
+  </si>
+  <si>
+    <t>If you really have to be in this area</t>
+  </si>
+  <si>
+    <t>Older hotel - adjoining door - I could hear a child talking all the time.  Not in a great area of town. Better hotels &amp; better part of town about 8 miles away.  Service good, staff very nice.  Needs a lot of updating.  Free breakfast was good.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r116077382-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116077382</t>
+  </si>
+  <si>
+    <t>07/31/2011</t>
+  </si>
+  <si>
+    <t>Great value. Friendly service</t>
+  </si>
+  <si>
+    <t>I've been staying at this Drury for 5 months so I feel qualified to review it. The service is wonderful. Second to none. Rooms could use an update but suites are spacious. Free breakfast and happy hour plus munchies. Price can't be beat.  Walking distance to nearby restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r115914745-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115914745</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Drury Inns are one of my new favorite hotels - they are wonderful about my dog that travels with me - allowing me late checkouts free of charge so she can stay in the room til after work on Fridays.  The complimentary breakfast, appetizers in the evening and drinks are great!  The rooms are always very clean and the staff is excellent!</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r103437531-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>103437531</t>
+  </si>
+  <si>
+    <t>04/09/2011</t>
+  </si>
+  <si>
+    <t>First stay at Drury Inn--will seek them out again!</t>
+  </si>
+  <si>
+    <t>We were booked into the Drury Inn with a school group on a very busy weekend (Houston Rodeo and many other things going on) at a very good rate, so our expectations weren't very high.  We were pleasantly surprised!  Hotel was clean, rooms were spacious, beds and showers were very good.  The breakfast buffet was average, but plentiful, and just right for a group of teenagers.  The cocktail hour was nice too and the staff was plesant.  Only thing that was odd was the wallpaper peeling in the halls--massive plumbing problems?  Roof leak?  Looks tacky.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r102187687-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>102187687</t>
+  </si>
+  <si>
+    <t>03/30/2011</t>
+  </si>
+  <si>
+    <t>Free Beer</t>
+  </si>
+  <si>
+    <t>Good by motel standards:Cleanmodern TVconveniently located by highwayfree wireless internetoffice with working printerhot breakfastetc.  What set this place apart was the cocktail hour.  At 5:30 they set out appetizers and beer, inclusive with room!</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r68065386-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>68065386</t>
+  </si>
+  <si>
+    <t>06/20/2010</t>
+  </si>
+  <si>
+    <t>We checked out early...enough said!</t>
+  </si>
+  <si>
+    <t>We had the mid-point leg on our trip from New Orleans to Hill Country, Texas planned out perfectly. The reservation was in place at Drury - Houston West &amp; after driving 360 miles, we were ready for a our hotel stay to commence. Unfortunately it lasted a whole 30 minutes. We received our 2-bedroom suite room and marched up to the 3rd floor to check it out. Wow, we were disappointed. We have stayed at Drury Inn in MS &amp; AL and these newer properties are simply amazingly comfortable &amp; pet friendly. This property is very old and the rooms are very small &amp; unrefined. The 2-bedroom suite was just a regular room crammed with mismatched beds &amp; outdated TVs &amp; decor. After allowing Drury Inn to call around to some other properties in Houston for us to transfer, we determined that all of their Houston facilities were equally disappointing. We moved on to La Quinta Brookshire, Texas (just down I-10 W from Katy Mills) and enjoyed it tremendously!!! Plus, they welcomed out Border Collie with open arms! Nothing against Drury. We will continue to patronize their properties, but just not their legacy locations such as this in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>DruryHotels, Management Representative at Drury Inn &amp; Suites Houston West Energy Corridor, responded to this reviewResponded June 22, 2010</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2010</t>
+  </si>
+  <si>
+    <t>We had the mid-point leg on our trip from New Orleans to Hill Country, Texas planned out perfectly. The reservation was in place at Drury - Houston West &amp; after driving 360 miles, we were ready for a our hotel stay to commence. Unfortunately it lasted a whole 30 minutes. We received our 2-bedroom suite room and marched up to the 3rd floor to check it out. Wow, we were disappointed. We have stayed at Drury Inn in MS &amp; AL and these newer properties are simply amazingly comfortable &amp; pet friendly. This property is very old and the rooms are very small &amp; unrefined. The 2-bedroom suite was just a regular room crammed with mismatched beds &amp; outdated TVs &amp; decor. After allowing Drury Inn to call around to some other properties in Houston for us to transfer, we determined that all of their Houston facilities were equally disappointing. We moved on to La Quinta Brookshire, Texas (just down I-10 W from Katy Mills) and enjoyed it tremendously!!! Plus, they welcomed out Border Collie with open arms! Nothing against Drury. We will continue to patronize their properties, but just not their legacy locations such as this in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r22353064-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22353064</t>
+  </si>
+  <si>
+    <t>12/01/2008</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Cold Pool</t>
+  </si>
+  <si>
+    <t>My family stayed at the Drury West Houston for one night. We were traveling home after Thanksgiving and this was the only hotel on our route that accepted pets and had an indoor pool, so we booked it. I called the hotel directly was offered a discounted weekend rate on a suite. The hotel was easy to locate from I-10 and there were several restaurants within close driving distance. Everything was very clean and the room was large. Their slogan is the "extras aren't extra" and that was true. The hot breakfast was good, though very crowded. For us the only drawback was that the indoor pool is NOT HEATED- it was freezing. This was a huge disappointment to my kids as it was just too cold to swim. There is a hot tub but it is small and not appropriate for small children anyway. So if you are looking for a nice place with perks on the west side of Houston, I would recommend this hotel, but don't plan on swimming if it's cold outside.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>My family stayed at the Drury West Houston for one night. We were traveling home after Thanksgiving and this was the only hotel on our route that accepted pets and had an indoor pool, so we booked it. I called the hotel directly was offered a discounted weekend rate on a suite. The hotel was easy to locate from I-10 and there were several restaurants within close driving distance. Everything was very clean and the room was large. Their slogan is the "extras aren't extra" and that was true. The hot breakfast was good, though very crowded. For us the only drawback was that the indoor pool is NOT HEATED- it was freezing. This was a huge disappointment to my kids as it was just too cold to swim. There is a hot tub but it is small and not appropriate for small children anyway. So if you are looking for a nice place with perks on the west side of Houston, I would recommend this hotel, but don't plan on swimming if it's cold outside.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r14669970-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>14669970</t>
+  </si>
+  <si>
+    <t>03/30/2008</t>
+  </si>
+  <si>
+    <t>Seems slightly tired</t>
+  </si>
+  <si>
+    <t>I've stayed at other Drury Inns, and this one seems just a bit sub-standard compared to the others.  Overall, though, I had a pleasant stay.  Positives: I found the staff at the front desk to be friendly and helpful.  The room itself (one-bedroom suite) was reasonably priced, spacious, and quiet.  The included buffet breakfast was good, and the serving staff were friendly and helpful.  The self-service laundry facilities were clean.  Location is convenient, even with the road construction nearby.Negatives: The room smelled musty.  In fact, after checking in, I checked on the door to make sure it really was a non-smoking room, because it surely didn't smell like one.  (It was non-smoking, according to the sign on the door).  This was the major complaint.  The carpet in the room also needed cleaning, in my opinion.  Basically, I think the room needed repainting and carpet replacement, and it would become a much nicer place. This hotel needs some updating to be at its' best, in my opinion.  The friendly and competent staff and the good breakfast help to make up somewhat for its' shortcomings, but not completely.   I would probably try something else in the area next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I've stayed at other Drury Inns, and this one seems just a bit sub-standard compared to the others.  Overall, though, I had a pleasant stay.  Positives: I found the staff at the front desk to be friendly and helpful.  The room itself (one-bedroom suite) was reasonably priced, spacious, and quiet.  The included buffet breakfast was good, and the serving staff were friendly and helpful.  The self-service laundry facilities were clean.  Location is convenient, even with the road construction nearby.Negatives: The room smelled musty.  In fact, after checking in, I checked on the door to make sure it really was a non-smoking room, because it surely didn't smell like one.  (It was non-smoking, according to the sign on the door).  This was the major complaint.  The carpet in the room also needed cleaning, in my opinion.  Basically, I think the room needed repainting and carpet replacement, and it would become a much nicer place. This hotel needs some updating to be at its' best, in my opinion.  The friendly and competent staff and the good breakfast help to make up somewhat for its' shortcomings, but not completely.   I would probably try something else in the area next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r14644073-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>14644073</t>
+  </si>
+  <si>
+    <t>03/29/2008</t>
+  </si>
+  <si>
+    <t>Wouldn't Hesitate to Stay Again</t>
+  </si>
+  <si>
+    <t>We arrived very early after a looong trip on Amtrak, several hours before check in time and hoped to leave our bags in reception until check in time.They could see how tired we were, and invited us to have breakfast in the breakfast room, and prepared a room for us as quickly as possible., While we waited we were able to snooze comfortably in the comfy armchairs of the lobby. The wait was just over an hour.After all of the excessive charges in Phoenix, it was refreshing to have most of the extras for free at the Drury. Being on vacation it was a shame that the internet computer has blocked most of the social networking sites, but I guess the hotel caters more for the business clients.The staff were very friendly and couldn't be more helpful. The free drinks were great.  ;o)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>We arrived very early after a looong trip on Amtrak, several hours before check in time and hoped to leave our bags in reception until check in time.They could see how tired we were, and invited us to have breakfast in the breakfast room, and prepared a room for us as quickly as possible., While we waited we were able to snooze comfortably in the comfy armchairs of the lobby. The wait was just over an hour.After all of the excessive charges in Phoenix, it was refreshing to have most of the extras for free at the Drury. Being on vacation it was a shame that the internet computer has blocked most of the social networking sites, but I guess the hotel caters more for the business clients.The staff were very friendly and couldn't be more helpful. The free drinks were great.  ;o)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r13057115-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>13057115</t>
+  </si>
+  <si>
+    <t>01/27/2008</t>
+  </si>
+  <si>
+    <t>Drury Me anytime  :).....</t>
+  </si>
+  <si>
+    <t>Stayed here for my second trip to Houston (business) in a month - I had stayed at another hotel last time, and the Drury is much better value all around.The good:- Nice decor &amp; atmosphere- Good sized room (king sized bed with large desk area)- Complete set of toiletries- - Good continental breakfast time - Great location for visiting downtown clients- Free wired Internet in the room and wireless in the lobby</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r8269143-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8269143</t>
+  </si>
+  <si>
+    <t>07/30/2007</t>
+  </si>
+  <si>
+    <t>Loved Drury</t>
+  </si>
+  <si>
+    <t>Great clean, quiet room. Loved hot breakfast, free phone and internet. Pet friendly.</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r8254178-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8254178</t>
+  </si>
+  <si>
+    <t>07/28/2007</t>
+  </si>
+  <si>
+    <t>Best Deal Around Town!</t>
+  </si>
+  <si>
+    <t>"Wow!" Is the best word to describe this hotel, the staff, and our stay at the Drury Inn-West Houston. I contacted the hotel directly to book as we were flying in from Norway at the last minute due to a death in the family.  The manager I spoke with (Abraham) was VERY kind and sympathetic to our situation and was kind enough to give us a very nice rate which was a blessing considering the ridiculous amount of cash we had to fork over for airfare (apparently bereavement fares are a myth and don't exist!!!)  We requested a crib in the room and for you parents out there who have traveled with small children, you know what a relief it is to not only ACTUALLY have the crib ready and waiting for you in the room but the crib not to be a death trap!  The crib was CLEAN, sturdy, well assembled and already made.  Happy baby.  Bliss!  The room was cleaned spotless everyday.  Bed was SUPER comfy.  PLENTY of fresh towels daily.  Husband and baby enjoyed the indoor pool which was quite large for a property of this size.  Room had microwave and fridge.  TV had LOTS of channels to choose from.  Wireless internet in the room was good and free. Coffee/Tea service in room was nice. Breakfast was quite tasty!  Not just cereal (they had that too) but sausage patties, scrambled eggs (typical pre-packaged, but at least they..."Wow!" Is the best word to describe this hotel, the staff, and our stay at the Drury Inn-West Houston. I contacted the hotel directly to book as we were flying in from Norway at the last minute due to a death in the family.  The manager I spoke with (Abraham) was VERY kind and sympathetic to our situation and was kind enough to give us a very nice rate which was a blessing considering the ridiculous amount of cash we had to fork over for airfare (apparently bereavement fares are a myth and don't exist!!!)  We requested a crib in the room and for you parents out there who have traveled with small children, you know what a relief it is to not only ACTUALLY have the crib ready and waiting for you in the room but the crib not to be a death trap!  The crib was CLEAN, sturdy, well assembled and already made.  Happy baby.  Bliss!  The room was cleaned spotless everyday.  Bed was SUPER comfy.  PLENTY of fresh towels daily.  Husband and baby enjoyed the indoor pool which was quite large for a property of this size.  Room had microwave and fridge.  TV had LOTS of channels to choose from.  Wireless internet in the room was good and free. Coffee/Tea service in room was nice. Breakfast was quite tasty!  Not just cereal (they had that too) but sausage patties, scrambled eggs (typical pre-packaged, but at least they HAD eggs), breads including bagels, make your own waffles, milk, juice, coffee, fruit, etc.  Location is great.  Right off of I-10 on Highway 6.  No restaurant in the hotel, but there's a so-so steakhouse next door (OK if you want to grab a burger) and some menus are in the room of a few places that will deliver to your room.  Only tsmall complaint I could make is that there's not much in the way of storage in the room we had (a king room).  Only a desk with 2 small drawers and one closet that could hold only one of our suitcases.  More drawer space would be nice.  The staff was great!  So super friendly and helpful!  I have to thank Haji, Abraham, Sunshine, and Reana- the Breakfastroom Lady who was so friendly and fell in love with our little baby girl.  For a moderate price hotel, it REALLY is the best value for the money with the best service.  Staying at the Drury Inn really is like staying with family...only much, much better and no drama!  :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>"Wow!" Is the best word to describe this hotel, the staff, and our stay at the Drury Inn-West Houston. I contacted the hotel directly to book as we were flying in from Norway at the last minute due to a death in the family.  The manager I spoke with (Abraham) was VERY kind and sympathetic to our situation and was kind enough to give us a very nice rate which was a blessing considering the ridiculous amount of cash we had to fork over for airfare (apparently bereavement fares are a myth and don't exist!!!)  We requested a crib in the room and for you parents out there who have traveled with small children, you know what a relief it is to not only ACTUALLY have the crib ready and waiting for you in the room but the crib not to be a death trap!  The crib was CLEAN, sturdy, well assembled and already made.  Happy baby.  Bliss!  The room was cleaned spotless everyday.  Bed was SUPER comfy.  PLENTY of fresh towels daily.  Husband and baby enjoyed the indoor pool which was quite large for a property of this size.  Room had microwave and fridge.  TV had LOTS of channels to choose from.  Wireless internet in the room was good and free. Coffee/Tea service in room was nice. Breakfast was quite tasty!  Not just cereal (they had that too) but sausage patties, scrambled eggs (typical pre-packaged, but at least they..."Wow!" Is the best word to describe this hotel, the staff, and our stay at the Drury Inn-West Houston. I contacted the hotel directly to book as we were flying in from Norway at the last minute due to a death in the family.  The manager I spoke with (Abraham) was VERY kind and sympathetic to our situation and was kind enough to give us a very nice rate which was a blessing considering the ridiculous amount of cash we had to fork over for airfare (apparently bereavement fares are a myth and don't exist!!!)  We requested a crib in the room and for you parents out there who have traveled with small children, you know what a relief it is to not only ACTUALLY have the crib ready and waiting for you in the room but the crib not to be a death trap!  The crib was CLEAN, sturdy, well assembled and already made.  Happy baby.  Bliss!  The room was cleaned spotless everyday.  Bed was SUPER comfy.  PLENTY of fresh towels daily.  Husband and baby enjoyed the indoor pool which was quite large for a property of this size.  Room had microwave and fridge.  TV had LOTS of channels to choose from.  Wireless internet in the room was good and free. Coffee/Tea service in room was nice. Breakfast was quite tasty!  Not just cereal (they had that too) but sausage patties, scrambled eggs (typical pre-packaged, but at least they HAD eggs), breads including bagels, make your own waffles, milk, juice, coffee, fruit, etc.  Location is great.  Right off of I-10 on Highway 6.  No restaurant in the hotel, but there's a so-so steakhouse next door (OK if you want to grab a burger) and some menus are in the room of a few places that will deliver to your room.  Only tsmall complaint I could make is that there's not much in the way of storage in the room we had (a king room).  Only a desk with 2 small drawers and one closet that could hold only one of our suitcases.  More drawer space would be nice.  The staff was great!  So super friendly and helpful!  I have to thank Haji, Abraham, Sunshine, and Reana- the Breakfastroom Lady who was so friendly and fell in love with our little baby girl.  For a moderate price hotel, it REALLY is the best value for the money with the best service.  Staying at the Drury Inn really is like staying with family...only much, much better and no drama!  :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r5985167-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5985167</t>
+  </si>
+  <si>
+    <t>10/22/2006</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>We stayed at Drury after leaving another hotel. It was wonderful. Staff was understanding. Very comfortable. Beautiful large suite. This just saved our visit to Houston.</t>
+  </si>
+  <si>
+    <t>September 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r3684727-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3684727</t>
+  </si>
+  <si>
+    <t>07/19/2005</t>
+  </si>
+  <si>
+    <t>We will be back</t>
+  </si>
+  <si>
+    <t>This is a fabulous hotel.  The room we got had a living area with a separate bedroom.  There were televisions in both rooms! ! !  It was clean and the hotel staff were wonderfully friendly and helpful.  The evening complementary wine/beer/soft drinks was generous, and the breakfast was good.   We will stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107991-r2617749-Drury_Inn_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>2617749</t>
+  </si>
+  <si>
+    <t>10/03/2004</t>
+  </si>
+  <si>
+    <t>Excellent Experience</t>
+  </si>
+  <si>
+    <t>We booked rooms here for my daughter's Oct 2nd wedding. The hotel was immaculately clean and the staff were all very friendly.  The food was always hot and plentiful at the breakfast buffet.  I would highly recommend this location to all!</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2166,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2198,5544 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>131</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>145</v>
+      </c>
+      <c r="O20" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>130</v>
+      </c>
+      <c r="O21" t="s">
+        <v>131</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>169</v>
+      </c>
+      <c r="X21" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>130</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>131</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>194</v>
+      </c>
+      <c r="X25" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s">
+        <v>201</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>202</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L29" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>219</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" t="s">
+        <v>224</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>225</v>
+      </c>
+      <c r="O30" t="s">
+        <v>131</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s">
+        <v>231</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>232</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>232</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s">
+        <v>242</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>243</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>252</v>
+      </c>
+      <c r="J35" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" t="s">
+        <v>255</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>219</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J36" t="s">
+        <v>258</v>
+      </c>
+      <c r="K36" t="s">
+        <v>259</v>
+      </c>
+      <c r="L36" t="s">
+        <v>260</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>219</v>
+      </c>
+      <c r="O36" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J37" t="s">
+        <v>264</v>
+      </c>
+      <c r="K37" t="s">
+        <v>265</v>
+      </c>
+      <c r="L37" t="s">
+        <v>266</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>243</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>268</v>
+      </c>
+      <c r="J38" t="s">
+        <v>269</v>
+      </c>
+      <c r="K38" t="s">
+        <v>270</v>
+      </c>
+      <c r="L38" t="s">
+        <v>271</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>272</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>274</v>
+      </c>
+      <c r="J39" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" t="s">
+        <v>276</v>
+      </c>
+      <c r="L39" t="s">
+        <v>277</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>283</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41" t="s">
+        <v>289</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>283</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>291</v>
+      </c>
+      <c r="J42" t="s">
+        <v>292</v>
+      </c>
+      <c r="K42" t="s">
+        <v>293</v>
+      </c>
+      <c r="L42" t="s">
+        <v>294</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>295</v>
+      </c>
+      <c r="O42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>297</v>
+      </c>
+      <c r="J43" t="s">
+        <v>298</v>
+      </c>
+      <c r="K43" t="s">
+        <v>299</v>
+      </c>
+      <c r="L43" t="s">
+        <v>300</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>295</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>301</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>302</v>
+      </c>
+      <c r="J44" t="s">
+        <v>303</v>
+      </c>
+      <c r="K44" t="s">
+        <v>304</v>
+      </c>
+      <c r="L44" t="s">
+        <v>305</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>306</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>308</v>
+      </c>
+      <c r="J45" t="s">
+        <v>309</v>
+      </c>
+      <c r="K45" t="s">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s">
+        <v>311</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>306</v>
+      </c>
+      <c r="O45" t="s">
+        <v>131</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>312</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>313</v>
+      </c>
+      <c r="J46" t="s">
+        <v>314</v>
+      </c>
+      <c r="K46" t="s">
+        <v>315</v>
+      </c>
+      <c r="L46" t="s">
+        <v>316</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>317</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>318</v>
+      </c>
+      <c r="J47" t="s">
+        <v>319</v>
+      </c>
+      <c r="K47" t="s">
+        <v>320</v>
+      </c>
+      <c r="L47" t="s">
+        <v>321</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>322</v>
+      </c>
+      <c r="O47" t="s">
+        <v>131</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>323</v>
+      </c>
+      <c r="X47" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>327</v>
+      </c>
+      <c r="J48" t="s">
+        <v>328</v>
+      </c>
+      <c r="K48" t="s">
+        <v>329</v>
+      </c>
+      <c r="L48" t="s">
+        <v>330</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>331</v>
+      </c>
+      <c r="O48" t="s">
+        <v>131</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>332</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>333</v>
+      </c>
+      <c r="J49" t="s">
+        <v>334</v>
+      </c>
+      <c r="K49" t="s">
+        <v>335</v>
+      </c>
+      <c r="L49" t="s">
+        <v>336</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>337</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>339</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>340</v>
+      </c>
+      <c r="J50" t="s">
+        <v>341</v>
+      </c>
+      <c r="K50" t="s">
+        <v>342</v>
+      </c>
+      <c r="L50" t="s">
+        <v>343</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>344</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>345</v>
+      </c>
+      <c r="X50" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>348</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>349</v>
+      </c>
+      <c r="J51" t="s">
+        <v>350</v>
+      </c>
+      <c r="K51" t="s">
+        <v>351</v>
+      </c>
+      <c r="L51" t="s">
+        <v>352</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>344</v>
+      </c>
+      <c r="O51" t="s">
+        <v>131</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>354</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>355</v>
+      </c>
+      <c r="J52" t="s">
+        <v>356</v>
+      </c>
+      <c r="K52" t="s">
+        <v>357</v>
+      </c>
+      <c r="L52" t="s">
+        <v>358</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>359</v>
+      </c>
+      <c r="X52" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>362</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>363</v>
+      </c>
+      <c r="J53" t="s">
+        <v>364</v>
+      </c>
+      <c r="K53" t="s">
+        <v>365</v>
+      </c>
+      <c r="L53" t="s">
+        <v>366</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>337</v>
+      </c>
+      <c r="O53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>367</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>368</v>
+      </c>
+      <c r="J54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K54" t="s">
+        <v>370</v>
+      </c>
+      <c r="L54" t="s">
+        <v>371</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>337</v>
+      </c>
+      <c r="O54" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>373</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>374</v>
+      </c>
+      <c r="J55" t="s">
+        <v>375</v>
+      </c>
+      <c r="K55" t="s">
+        <v>376</v>
+      </c>
+      <c r="L55" t="s">
+        <v>377</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>379</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>380</v>
+      </c>
+      <c r="J56" t="s">
+        <v>381</v>
+      </c>
+      <c r="K56" t="s">
+        <v>236</v>
+      </c>
+      <c r="L56" t="s">
+        <v>382</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>383</v>
+      </c>
+      <c r="O56" t="s">
+        <v>73</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>384</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>385</v>
+      </c>
+      <c r="J57" t="s">
+        <v>386</v>
+      </c>
+      <c r="K57" t="s">
+        <v>387</v>
+      </c>
+      <c r="L57" t="s">
+        <v>388</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>389</v>
+      </c>
+      <c r="O57" t="s">
+        <v>131</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>391</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>392</v>
+      </c>
+      <c r="J58" t="s">
+        <v>393</v>
+      </c>
+      <c r="K58" t="s">
+        <v>387</v>
+      </c>
+      <c r="L58" t="s">
+        <v>394</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>389</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>395</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>396</v>
+      </c>
+      <c r="J59" t="s">
+        <v>397</v>
+      </c>
+      <c r="K59" t="s">
+        <v>365</v>
+      </c>
+      <c r="L59" t="s">
+        <v>398</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>399</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>401</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>402</v>
+      </c>
+      <c r="J60" t="s">
+        <v>403</v>
+      </c>
+      <c r="K60" t="s">
+        <v>404</v>
+      </c>
+      <c r="L60" t="s">
+        <v>405</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>406</v>
+      </c>
+      <c r="O60" t="s">
+        <v>73</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>407</v>
+      </c>
+      <c r="X60" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>410</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>411</v>
+      </c>
+      <c r="J61" t="s">
+        <v>412</v>
+      </c>
+      <c r="K61" t="s">
+        <v>413</v>
+      </c>
+      <c r="L61" t="s">
+        <v>414</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>415</v>
+      </c>
+      <c r="O61" t="s">
+        <v>131</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>416</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>417</v>
+      </c>
+      <c r="J62" t="s">
+        <v>418</v>
+      </c>
+      <c r="K62" t="s">
+        <v>419</v>
+      </c>
+      <c r="L62" t="s">
+        <v>420</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>421</v>
+      </c>
+      <c r="O62" t="s">
+        <v>73</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>422</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>423</v>
+      </c>
+      <c r="J63" t="s">
+        <v>424</v>
+      </c>
+      <c r="K63" t="s">
+        <v>425</v>
+      </c>
+      <c r="L63" t="s">
+        <v>426</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>427</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>428</v>
+      </c>
+      <c r="J64" t="s">
+        <v>429</v>
+      </c>
+      <c r="K64" t="s">
+        <v>430</v>
+      </c>
+      <c r="L64" t="s">
+        <v>431</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>433</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>434</v>
+      </c>
+      <c r="J65" t="s">
+        <v>435</v>
+      </c>
+      <c r="K65" t="s">
+        <v>436</v>
+      </c>
+      <c r="L65" t="s">
+        <v>437</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>438</v>
+      </c>
+      <c r="O65" t="s">
+        <v>73</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>440</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>441</v>
+      </c>
+      <c r="J66" t="s">
+        <v>442</v>
+      </c>
+      <c r="K66" t="s">
+        <v>443</v>
+      </c>
+      <c r="L66" t="s">
+        <v>444</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>445</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>446</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>447</v>
+      </c>
+      <c r="J67" t="s">
+        <v>448</v>
+      </c>
+      <c r="K67" t="s">
+        <v>449</v>
+      </c>
+      <c r="L67" t="s">
+        <v>450</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>451</v>
+      </c>
+      <c r="O67" t="s">
+        <v>73</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>452</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>453</v>
+      </c>
+      <c r="J68" t="s">
+        <v>454</v>
+      </c>
+      <c r="K68" t="s">
+        <v>455</v>
+      </c>
+      <c r="L68" t="s">
+        <v>456</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>457</v>
+      </c>
+      <c r="O68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>458</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>459</v>
+      </c>
+      <c r="J69" t="s">
+        <v>460</v>
+      </c>
+      <c r="K69" t="s">
+        <v>461</v>
+      </c>
+      <c r="L69" t="s">
+        <v>462</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>463</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>464</v>
+      </c>
+      <c r="J70" t="s">
+        <v>465</v>
+      </c>
+      <c r="K70" t="s">
+        <v>466</v>
+      </c>
+      <c r="L70" t="s">
+        <v>467</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>468</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>469</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>470</v>
+      </c>
+      <c r="J71" t="s">
+        <v>471</v>
+      </c>
+      <c r="K71" t="s">
+        <v>472</v>
+      </c>
+      <c r="L71" t="s">
+        <v>473</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>474</v>
+      </c>
+      <c r="O71" t="s">
+        <v>131</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>476</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>477</v>
+      </c>
+      <c r="J72" t="s">
+        <v>478</v>
+      </c>
+      <c r="K72" t="s">
+        <v>479</v>
+      </c>
+      <c r="L72" t="s">
+        <v>480</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>474</v>
+      </c>
+      <c r="O72" t="s">
+        <v>131</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>482</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>483</v>
+      </c>
+      <c r="J73" t="s">
+        <v>484</v>
+      </c>
+      <c r="K73" t="s">
+        <v>485</v>
+      </c>
+      <c r="L73" t="s">
+        <v>486</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>487</v>
+      </c>
+      <c r="O73" t="s">
+        <v>131</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>488</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>489</v>
+      </c>
+      <c r="J74" t="s">
+        <v>490</v>
+      </c>
+      <c r="K74" t="s">
+        <v>491</v>
+      </c>
+      <c r="L74" t="s">
+        <v>492</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>493</v>
+      </c>
+      <c r="O74" t="s">
+        <v>131</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>494</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>495</v>
+      </c>
+      <c r="J75" t="s">
+        <v>496</v>
+      </c>
+      <c r="K75" t="s">
+        <v>497</v>
+      </c>
+      <c r="L75" t="s">
+        <v>498</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>499</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>500</v>
+      </c>
+      <c r="J76" t="s">
+        <v>501</v>
+      </c>
+      <c r="K76" t="s">
+        <v>502</v>
+      </c>
+      <c r="L76" t="s">
+        <v>503</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>504</v>
+      </c>
+      <c r="O76" t="s">
+        <v>131</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>505</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>506</v>
+      </c>
+      <c r="J77" t="s">
+        <v>507</v>
+      </c>
+      <c r="K77" t="s">
+        <v>508</v>
+      </c>
+      <c r="L77" t="s">
+        <v>509</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>510</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>511</v>
+      </c>
+      <c r="J78" t="s">
+        <v>512</v>
+      </c>
+      <c r="K78" t="s">
+        <v>513</v>
+      </c>
+      <c r="L78" t="s">
+        <v>514</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>515</v>
+      </c>
+      <c r="O78" t="s">
+        <v>131</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>516</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>517</v>
+      </c>
+      <c r="J79" t="s">
+        <v>518</v>
+      </c>
+      <c r="K79" t="s">
+        <v>519</v>
+      </c>
+      <c r="L79" t="s">
+        <v>520</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>521</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>522</v>
+      </c>
+      <c r="X79" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>525</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>526</v>
+      </c>
+      <c r="J80" t="s">
+        <v>527</v>
+      </c>
+      <c r="K80" t="s">
+        <v>528</v>
+      </c>
+      <c r="L80" t="s">
+        <v>529</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>530</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>532</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>533</v>
+      </c>
+      <c r="J81" t="s">
+        <v>534</v>
+      </c>
+      <c r="K81" t="s">
+        <v>535</v>
+      </c>
+      <c r="L81" t="s">
+        <v>536</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>537</v>
+      </c>
+      <c r="O81" t="s">
+        <v>538</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>540</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>541</v>
+      </c>
+      <c r="J82" t="s">
+        <v>542</v>
+      </c>
+      <c r="K82" t="s">
+        <v>543</v>
+      </c>
+      <c r="L82" t="s">
+        <v>544</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>545</v>
+      </c>
+      <c r="O82" t="s">
+        <v>73</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>547</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>548</v>
+      </c>
+      <c r="J83" t="s">
+        <v>549</v>
+      </c>
+      <c r="K83" t="s">
+        <v>550</v>
+      </c>
+      <c r="L83" t="s">
+        <v>551</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>552</v>
+      </c>
+      <c r="O83" t="s">
+        <v>131</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>553</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>554</v>
+      </c>
+      <c r="J84" t="s">
+        <v>555</v>
+      </c>
+      <c r="K84" t="s">
+        <v>556</v>
+      </c>
+      <c r="L84" t="s">
+        <v>557</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>558</v>
+      </c>
+      <c r="O84" t="s">
+        <v>73</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>559</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>560</v>
+      </c>
+      <c r="J85" t="s">
+        <v>561</v>
+      </c>
+      <c r="K85" t="s">
+        <v>562</v>
+      </c>
+      <c r="L85" t="s">
+        <v>563</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>558</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>565</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>566</v>
+      </c>
+      <c r="J86" t="s">
+        <v>567</v>
+      </c>
+      <c r="K86" t="s">
+        <v>568</v>
+      </c>
+      <c r="L86" t="s">
+        <v>569</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>570</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>571</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>572</v>
+      </c>
+      <c r="J87" t="s">
+        <v>573</v>
+      </c>
+      <c r="K87" t="s">
+        <v>574</v>
+      </c>
+      <c r="L87" t="s">
+        <v>575</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>30620</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>576</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>577</v>
+      </c>
+      <c r="J88" t="s">
+        <v>578</v>
+      </c>
+      <c r="K88" t="s">
+        <v>579</v>
+      </c>
+      <c r="L88" t="s">
+        <v>580</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
